--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FA2A1-D59F-4012-8717-E376E8D04673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7DA58C-8CDF-431A-BF7E-8B3890046DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16665" yWindow="1155" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15675" yWindow="1950" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="209">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -658,6 +658,14 @@
     <t>8/27.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>8/28.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가문항</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -666,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +734,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -839,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,6 +890,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,11 +917,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q196"/>
+  <dimension ref="B2:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -1198,39 +1216,48 @@
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="31.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.625" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="31.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:21" ht="30" customHeight="1">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="N2" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1250,32 +1277,41 @@
         <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:21">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1290,32 +1326,32 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="8">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="8">
+      <c r="O4" s="8">
         <v>1545</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="7"/>
+      <c r="R4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="11">
+      <c r="S4" s="11">
         <v>2669</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="19"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1328,32 +1364,32 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="8">
+      <c r="M5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="8">
+      <c r="O5" s="8">
         <v>1933</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="N5" s="11" t="s">
+      <c r="P5" s="7"/>
+      <c r="R5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="11">
+      <c r="S5" s="11">
         <v>2635</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="19"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1366,30 +1402,30 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="I6" s="8">
+      <c r="G6" s="13"/>
+      <c r="M6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="8">
+      <c r="O6" s="8">
         <v>1936</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="N6" s="11" t="s">
+      <c r="P6" s="7"/>
+      <c r="R6" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="11">
+      <c r="S6" s="11">
         <v>1244</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="19"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -1402,30 +1438,32 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="I7" s="8">
+      <c r="G7" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="8">
+      <c r="O7" s="8">
         <v>1938</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="7"/>
+      <c r="R7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="11">
+      <c r="S7" s="11">
         <v>2628</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="19"/>
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -1438,30 +1476,32 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="I8" s="8">
+      <c r="G8" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="8">
+      <c r="O8" s="8">
         <v>2019</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="7"/>
+      <c r="R8" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="11">
+      <c r="S8" s="11">
         <v>2116</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="19"/>
       <c r="C9" s="4">
         <v>6</v>
       </c>
@@ -1474,30 +1514,32 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="I9" s="8">
+      <c r="G9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="8">
         <v>6</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K9" s="8">
+      <c r="O9" s="8">
         <v>2025</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="11" t="s">
+      <c r="P9" s="7"/>
+      <c r="R9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="11">
+      <c r="S9" s="11">
         <v>2304</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>7</v>
       </c>
@@ -1510,30 +1552,32 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="I10" s="8">
+      <c r="G10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" s="8">
         <v>7</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="8">
+      <c r="O10" s="8">
         <v>2027</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="7"/>
+      <c r="R10" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="11">
+      <c r="S10" s="11">
         <v>2559</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="19"/>
       <c r="C11" s="4">
         <v>8</v>
       </c>
@@ -1546,30 +1590,30 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="I11" s="8">
+      <c r="G11" s="13"/>
+      <c r="M11" s="8">
         <v>8</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="8">
+      <c r="O11" s="8">
         <v>2029</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="7"/>
+      <c r="R11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O11" s="11">
+      <c r="S11" s="11">
         <v>2578</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="19"/>
       <c r="C12" s="4">
         <v>9</v>
       </c>
@@ -1582,30 +1626,30 @@
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="I12" s="8">
+      <c r="G12" s="13"/>
+      <c r="M12" s="8">
         <v>9</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="8">
+      <c r="O12" s="8">
         <v>2043</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="7"/>
+      <c r="R12" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="11">
+      <c r="S12" s="11">
         <v>2477</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="19"/>
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -1618,30 +1662,30 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="I13" s="8">
+      <c r="G13" s="13"/>
+      <c r="M13" s="8">
         <v>10</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="8">
+      <c r="O13" s="8">
         <v>2046</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="11" t="s">
+      <c r="P13" s="7"/>
+      <c r="R13" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="11">
+      <c r="S13" s="11">
         <v>2527</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="19"/>
       <c r="C14" s="4">
         <v>11</v>
       </c>
@@ -1654,30 +1698,30 @@
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="I14" s="8">
+      <c r="G14" s="13"/>
+      <c r="M14" s="8">
         <v>11</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="8">
+      <c r="O14" s="8">
         <v>2047</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="11" t="s">
+      <c r="P14" s="7"/>
+      <c r="R14" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="11">
+      <c r="S14" s="11">
         <v>10157</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="19"/>
       <c r="C15" s="4">
         <v>12</v>
       </c>
@@ -1690,30 +1734,30 @@
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="I15" s="8">
-        <v>12</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="G15" s="13"/>
+      <c r="M15" s="8">
+        <v>12</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="8">
+      <c r="O15" s="8">
         <v>2050</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="N15" s="11" t="s">
+      <c r="P15" s="7"/>
+      <c r="R15" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="11">
+      <c r="S15" s="11">
         <v>10158</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <v>13</v>
       </c>
@@ -1726,30 +1770,30 @@
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="I16" s="8">
+      <c r="G16" s="13"/>
+      <c r="M16" s="8">
         <v>13</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="8">
+      <c r="O16" s="8">
         <v>2056</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="N16" s="11" t="s">
+      <c r="P16" s="7"/>
+      <c r="R16" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="11">
+      <c r="S16" s="11">
         <v>10163</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>14</v>
       </c>
@@ -1762,30 +1806,30 @@
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="I17" s="8">
+      <c r="G17" s="13"/>
+      <c r="M17" s="8">
         <v>14</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="8">
+      <c r="O17" s="8">
         <v>2058</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="7"/>
+      <c r="R17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O17" s="11">
+      <c r="S17" s="11">
         <v>13300</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <v>15</v>
       </c>
@@ -1798,30 +1842,30 @@
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="I18" s="8">
+      <c r="G18" s="13"/>
+      <c r="M18" s="8">
         <v>15</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="8">
+      <c r="O18" s="8">
         <v>2063</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="N18" s="11" t="s">
+      <c r="P18" s="7"/>
+      <c r="R18" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="11">
+      <c r="S18" s="11">
         <v>14696</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <v>16</v>
       </c>
@@ -1834,30 +1878,30 @@
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="I19" s="8">
+      <c r="G19" s="13"/>
+      <c r="M19" s="8">
         <v>16</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="8">
+      <c r="O19" s="8">
         <v>2068</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="N19" s="11" t="s">
+      <c r="P19" s="7"/>
+      <c r="R19" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="11">
+      <c r="S19" s="11">
         <v>2309</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="19"/>
       <c r="C20" s="4">
         <v>17</v>
       </c>
@@ -1870,30 +1914,30 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="I20" s="8">
+      <c r="G20" s="13"/>
+      <c r="M20" s="8">
         <v>17</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="8">
+      <c r="O20" s="8">
         <v>2070</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="N20" s="11" t="s">
+      <c r="P20" s="7"/>
+      <c r="R20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O20" s="11">
+      <c r="S20" s="11">
         <v>2605</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="T20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="19"/>
       <c r="C21" s="4">
         <v>18</v>
       </c>
@@ -1906,30 +1950,30 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="I21" s="8">
+      <c r="G21" s="13"/>
+      <c r="M21" s="8">
         <v>18</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="8">
+      <c r="O21" s="8">
         <v>2071</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="N21" s="11" t="s">
+      <c r="P21" s="7"/>
+      <c r="R21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="11">
+      <c r="S21" s="11">
         <v>2563</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="19"/>
       <c r="C22" s="4">
         <v>19</v>
       </c>
@@ -1942,30 +1986,32 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="I22" s="8">
+      <c r="G22" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="8">
         <v>19</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="8">
+      <c r="O22" s="8">
         <v>2072</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="N22" s="11" t="s">
+      <c r="P22" s="7"/>
+      <c r="R22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="11">
+      <c r="S22" s="11">
         <v>2564</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="19"/>
       <c r="C23" s="4">
         <v>20</v>
       </c>
@@ -1978,30 +2024,32 @@
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="I23" s="8">
+      <c r="G23" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="8">
         <v>20</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="8">
+      <c r="O23" s="8">
         <v>1204</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="N23" s="11" t="s">
+      <c r="P23" s="7"/>
+      <c r="R23" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O23" s="11">
+      <c r="S23" s="11">
         <v>2491</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="T23" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="19"/>
       <c r="C24" s="4">
         <v>21</v>
       </c>
@@ -2014,20 +2062,22 @@
       <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="I24" s="8">
+      <c r="G24" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="8">
         <v>21</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="8">
+      <c r="O24" s="8">
         <v>1284</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="19"/>
       <c r="C25" s="4">
         <v>22</v>
       </c>
@@ -2040,32 +2090,32 @@
       <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="I25" s="8">
+      <c r="G25" s="13"/>
+      <c r="M25" s="8">
         <v>22</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="8">
+      <c r="O25" s="8">
         <v>1288</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="N25" s="10" t="s">
+      <c r="P25" s="7"/>
+      <c r="R25" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="T25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+    <row r="26" spans="2:21">
+      <c r="B26" s="19"/>
       <c r="C26" s="4">
         <v>23</v>
       </c>
@@ -2078,30 +2128,30 @@
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="I26" s="8">
+      <c r="G26" s="13"/>
+      <c r="M26" s="8">
         <v>23</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="8">
+      <c r="O26" s="8">
         <v>1859</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="N26" s="11" t="s">
+      <c r="P26" s="7"/>
+      <c r="R26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O26" s="11">
+      <c r="S26" s="11">
         <v>2001</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="19"/>
       <c r="C27" s="4">
         <v>24</v>
       </c>
@@ -2114,30 +2164,30 @@
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="I27" s="8">
+      <c r="G27" s="13"/>
+      <c r="M27" s="8">
         <v>24</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="8">
+      <c r="O27" s="8">
         <v>1926</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="N27" s="11" t="s">
+      <c r="P27" s="7"/>
+      <c r="R27" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O27" s="11">
+      <c r="S27" s="11">
         <v>1206</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="T27" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="19"/>
       <c r="C28" s="4">
         <v>25</v>
       </c>
@@ -2150,30 +2200,30 @@
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="I28" s="8">
+      <c r="G28" s="13"/>
+      <c r="M28" s="8">
         <v>25</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="8">
+      <c r="O28" s="8">
         <v>1928</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="N28" s="11" t="s">
+      <c r="P28" s="7"/>
+      <c r="R28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O28" s="11">
+      <c r="S28" s="11">
         <v>1208</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="19"/>
       <c r="C29" s="4">
         <v>26</v>
       </c>
@@ -2186,30 +2236,30 @@
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="I29" s="8">
+      <c r="G29" s="13"/>
+      <c r="M29" s="8">
         <v>26</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="8">
+      <c r="O29" s="8">
         <v>1940</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="N29" s="11" t="s">
+      <c r="P29" s="7"/>
+      <c r="R29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="11">
+      <c r="S29" s="11">
         <v>4828</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="T29" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2">
@@ -2224,30 +2274,30 @@
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="I30" s="8">
+      <c r="G30" s="13"/>
+      <c r="M30" s="8">
         <v>27</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K30" s="8">
+      <c r="O30" s="8">
         <v>1945</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="N30" s="11" t="s">
+      <c r="P30" s="7"/>
+      <c r="R30" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O30" s="11">
+      <c r="S30" s="11">
         <v>4834</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="19"/>
       <c r="C31" s="2">
         <v>28</v>
       </c>
@@ -2260,30 +2310,30 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="I31" s="8">
+      <c r="G31" s="13"/>
+      <c r="M31" s="8">
         <v>28</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="8">
+      <c r="O31" s="8">
         <v>1946</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="N31" s="11" t="s">
+      <c r="P31" s="7"/>
+      <c r="R31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="11">
+      <c r="S31" s="11">
         <v>4835</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="T31" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="19"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2296,30 +2346,30 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="I32" s="8">
+      <c r="G32" s="13"/>
+      <c r="M32" s="8">
         <v>29</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="8">
+      <c r="O32" s="8">
         <v>1948</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="N32" s="11" t="s">
+      <c r="P32" s="7"/>
+      <c r="R32" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O32" s="11">
+      <c r="S32" s="11">
         <v>5431</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="T32" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="19"/>
       <c r="C33" s="2">
         <v>30</v>
       </c>
@@ -2332,30 +2382,30 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="I33" s="8">
+      <c r="G33" s="13"/>
+      <c r="M33" s="8">
         <v>30</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="8">
+      <c r="O33" s="8">
         <v>1954</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="N33" s="11" t="s">
+      <c r="P33" s="7"/>
+      <c r="R33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O33" s="11">
+      <c r="S33" s="11">
         <v>1970</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="T33" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2">
@@ -2370,30 +2420,30 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="I34" s="8">
+      <c r="G34" s="13"/>
+      <c r="M34" s="8">
         <v>31</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="N34" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="8">
+      <c r="O34" s="8">
         <v>1959</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="N34" s="11" t="s">
+      <c r="P34" s="7"/>
+      <c r="R34" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="11">
+      <c r="S34" s="11">
         <v>1959</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="T34" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="19"/>
       <c r="C35" s="2">
         <v>32</v>
       </c>
@@ -2406,30 +2456,30 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="I35" s="8">
+      <c r="G35" s="13"/>
+      <c r="M35" s="8">
         <v>32</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="N35" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="8">
+      <c r="O35" s="8">
         <v>1961</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="N35" s="11" t="s">
+      <c r="P35" s="7"/>
+      <c r="R35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O35" s="11">
+      <c r="S35" s="11">
         <v>1209</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="T35" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Q35" s="9"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="19"/>
       <c r="C36" s="2">
         <v>33</v>
       </c>
@@ -2442,30 +2492,30 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="I36" s="8">
+      <c r="G36" s="13"/>
+      <c r="M36" s="8">
         <v>33</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K36" s="8">
+      <c r="O36" s="8">
         <v>1966</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="N36" s="11" t="s">
+      <c r="P36" s="7"/>
+      <c r="R36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O36" s="11">
+      <c r="S36" s="11">
         <v>4836</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="T36" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="19"/>
       <c r="C37" s="2">
         <v>34</v>
       </c>
@@ -2478,30 +2528,30 @@
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="I37" s="8">
+      <c r="G37" s="13"/>
+      <c r="M37" s="8">
         <v>34</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="8">
+      <c r="O37" s="8">
         <v>1970</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="N37" s="11" t="s">
+      <c r="P37" s="7"/>
+      <c r="R37" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O37" s="11">
+      <c r="S37" s="11">
         <v>4843</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="T37" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="Q37" s="9"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="19"/>
       <c r="C38" s="2">
         <v>35</v>
       </c>
@@ -2514,30 +2564,30 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="I38" s="8">
+      <c r="G38" s="13"/>
+      <c r="M38" s="8">
         <v>35</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="N38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K38" s="8">
+      <c r="O38" s="8">
         <v>1974</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="N38" s="11" t="s">
+      <c r="P38" s="7"/>
+      <c r="R38" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O38" s="11">
+      <c r="S38" s="11">
         <v>1210</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="T38" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="Q38" s="9"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="19"/>
       <c r="C39" s="4">
         <v>36</v>
       </c>
@@ -2550,30 +2600,30 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="I39" s="8">
+      <c r="G39" s="13"/>
+      <c r="M39" s="8">
         <v>36</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K39" s="8">
+      <c r="O39" s="8">
         <v>1976</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="N39" s="11" t="s">
+      <c r="P39" s="7"/>
+      <c r="R39" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O39" s="11">
+      <c r="S39" s="11">
         <v>1211</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="T39" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="Q39" s="9"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="19"/>
       <c r="C40" s="4">
         <v>37</v>
       </c>
@@ -2586,30 +2636,30 @@
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="I40" s="8">
+      <c r="G40" s="13"/>
+      <c r="M40" s="8">
         <v>37</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="N40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K40" s="8">
+      <c r="O40" s="8">
         <v>1979</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="N40" s="11" t="s">
+      <c r="P40" s="7"/>
+      <c r="R40" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O40" s="11">
+      <c r="S40" s="11">
         <v>1220</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="T40" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="Q40" s="9"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="19"/>
       <c r="C41" s="4">
         <v>38</v>
       </c>
@@ -2622,30 +2672,30 @@
       <c r="F41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="I41" s="8">
+      <c r="G41" s="13"/>
+      <c r="M41" s="8">
         <v>38</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="N41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="8">
+      <c r="O41" s="8">
         <v>1983</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="N41" s="11" t="s">
+      <c r="P41" s="7"/>
+      <c r="R41" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O41" s="11">
+      <c r="S41" s="11">
         <v>1258</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="T41" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="19"/>
       <c r="C42" s="4">
         <v>39</v>
       </c>
@@ -2658,30 +2708,30 @@
       <c r="F42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="I42" s="8">
+      <c r="G42" s="13"/>
+      <c r="M42" s="8">
         <v>39</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="N42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K42" s="8">
+      <c r="O42" s="8">
         <v>1984</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="N42" s="11" t="s">
+      <c r="P42" s="7"/>
+      <c r="R42" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O42" s="11">
+      <c r="S42" s="11">
         <v>1974</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="T42" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="19"/>
       <c r="C43" s="4">
         <v>40</v>
       </c>
@@ -2694,30 +2744,30 @@
       <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="I43" s="8">
+      <c r="G43" s="13"/>
+      <c r="M43" s="8">
         <v>40</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="N43" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K43" s="8">
+      <c r="O43" s="8">
         <v>1986</v>
       </c>
-      <c r="L43" s="7"/>
-      <c r="N43" s="11" t="s">
+      <c r="P43" s="7"/>
+      <c r="R43" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O43" s="11">
+      <c r="S43" s="11">
         <v>1961</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="T43" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="19"/>
       <c r="C44" s="4">
         <v>41</v>
       </c>
@@ -2730,30 +2780,30 @@
       <c r="F44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="I44" s="8">
+      <c r="G44" s="13"/>
+      <c r="M44" s="8">
         <v>41</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="8">
+      <c r="O44" s="8">
         <v>1989</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="N44" s="11" t="s">
+      <c r="P44" s="7"/>
+      <c r="R44" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="11">
+      <c r="S44" s="11">
         <v>4466</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="T44" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="19"/>
       <c r="C45" s="4">
         <v>42</v>
       </c>
@@ -2766,30 +2816,30 @@
       <c r="F45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="I45" s="8">
+      <c r="G45" s="13"/>
+      <c r="M45" s="8">
         <v>42</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="N45" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="8">
+      <c r="O45" s="8">
         <v>2001</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="N45" s="11" t="s">
+      <c r="P45" s="7"/>
+      <c r="R45" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O45" s="11">
+      <c r="S45" s="11">
         <v>1979</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="T45" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="17" t="s">
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="2">
@@ -2804,30 +2854,30 @@
       <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="I46" s="8">
+      <c r="G46" s="13"/>
+      <c r="M46" s="8">
         <v>43</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K46" s="8">
+      <c r="O46" s="8">
         <v>2005</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="N46" s="11" t="s">
+      <c r="P46" s="7"/>
+      <c r="R46" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O46" s="11">
+      <c r="S46" s="11">
         <v>2805</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="T46" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="19"/>
       <c r="C47" s="2">
         <v>44</v>
       </c>
@@ -2840,30 +2890,30 @@
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="I47" s="8">
+      <c r="G47" s="13"/>
+      <c r="M47" s="8">
         <v>44</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="N47" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K47" s="8">
+      <c r="O47" s="8">
         <v>2007</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="N47" s="11" t="s">
+      <c r="P47" s="7"/>
+      <c r="R47" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O47" s="11">
+      <c r="S47" s="11">
         <v>6190</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="T47" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="19"/>
       <c r="C48" s="2">
         <v>45</v>
       </c>
@@ -2876,30 +2926,30 @@
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="I48" s="8">
+      <c r="G48" s="13"/>
+      <c r="M48" s="8">
         <v>45</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K48" s="8">
+      <c r="N48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8">
         <v>1206</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="N48" s="11" t="s">
+      <c r="P48" s="7"/>
+      <c r="R48" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O48" s="11">
+      <c r="S48" s="11">
         <v>1221</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="T48" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="19"/>
       <c r="C49" s="2">
         <v>46</v>
       </c>
@@ -2912,30 +2962,30 @@
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="I49" s="8">
+      <c r="G49" s="13"/>
+      <c r="M49" s="8">
         <v>46</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="8">
+      <c r="N49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O49" s="8">
         <v>1208</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="N49" s="11" t="s">
+      <c r="P49" s="7"/>
+      <c r="R49" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O49" s="11">
+      <c r="S49" s="11">
         <v>1215</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="T49" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+      <c r="U49" s="9"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="19"/>
       <c r="C50" s="2">
         <v>47</v>
       </c>
@@ -2948,30 +2998,30 @@
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="I50" s="8">
+      <c r="G50" s="13"/>
+      <c r="M50" s="8">
         <v>47</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" s="8">
+      <c r="N50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O50" s="8">
         <v>1209</v>
       </c>
-      <c r="L50" s="7"/>
-      <c r="N50" s="11" t="s">
+      <c r="P50" s="7"/>
+      <c r="R50" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O50" s="11">
+      <c r="S50" s="11">
         <v>1216</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="T50" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
+      <c r="U50" s="9"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="19"/>
       <c r="C51" s="4">
         <v>48</v>
       </c>
@@ -2984,30 +3034,30 @@
       <c r="F51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="I51" s="8">
+      <c r="G51" s="13"/>
+      <c r="M51" s="8">
         <v>48</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K51" s="8">
+      <c r="N51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="8">
         <v>1213</v>
       </c>
-      <c r="L51" s="7"/>
-      <c r="N51" s="11" t="s">
+      <c r="P51" s="7"/>
+      <c r="R51" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O51" s="11">
+      <c r="S51" s="11">
         <v>1267</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="T51" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B52" s="17"/>
+      <c r="U51" s="9"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="19"/>
       <c r="C52" s="4">
         <v>49</v>
       </c>
@@ -3020,20 +3070,20 @@
       <c r="F52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="I52" s="8">
+      <c r="G52" s="13"/>
+      <c r="M52" s="8">
         <v>49</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K52" s="8">
+      <c r="N52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O52" s="8">
         <v>1215</v>
       </c>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="19"/>
       <c r="C53" s="4">
         <v>50</v>
       </c>
@@ -3046,20 +3096,20 @@
       <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="I53" s="8">
+      <c r="G53" s="13"/>
+      <c r="M53" s="8">
         <v>50</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53" s="8">
+      <c r="N53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" s="8">
         <v>1216</v>
       </c>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="17"/>
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="19"/>
       <c r="C54" s="4">
         <v>51</v>
       </c>
@@ -3072,20 +3122,20 @@
       <c r="F54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="I54" s="8">
+      <c r="G54" s="13"/>
+      <c r="M54" s="8">
         <v>51</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K54" s="8">
+      <c r="N54" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="8">
         <v>1217</v>
       </c>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="17"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="19"/>
       <c r="C55" s="4">
         <v>52</v>
       </c>
@@ -3098,23 +3148,23 @@
       <c r="F55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="I55" s="8">
+      <c r="G55" s="13"/>
+      <c r="M55" s="8">
         <v>52</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K55" s="8">
+      <c r="N55" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O55" s="8">
         <v>1220</v>
       </c>
-      <c r="L55" s="7"/>
-      <c r="N55" t="s">
+      <c r="P55" s="7"/>
+      <c r="R55" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B56" s="17" t="s">
+    <row r="56" spans="2:21">
+      <c r="B56" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2">
@@ -3129,26 +3179,26 @@
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="I56" s="8">
+      <c r="G56" s="13"/>
+      <c r="M56" s="8">
         <v>53</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K56" s="8">
+      <c r="N56" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O56" s="8">
         <v>1221</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="N56" t="s">
+      <c r="P56" s="7"/>
+      <c r="R56" t="s">
         <v>196</v>
       </c>
-      <c r="O56" t="s">
+      <c r="S56" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
+    <row r="57" spans="2:21">
+      <c r="B57" s="19"/>
       <c r="C57" s="2">
         <v>54</v>
       </c>
@@ -3161,23 +3211,23 @@
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="I57" s="8">
+      <c r="G57" s="13"/>
+      <c r="M57" s="8">
         <v>54</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K57" s="8">
+      <c r="N57" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="8">
         <v>1225</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="O57" t="s">
+      <c r="P57" s="7"/>
+      <c r="S57" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B58" s="17"/>
+    <row r="58" spans="2:21">
+      <c r="B58" s="19"/>
       <c r="C58" s="2">
         <v>55</v>
       </c>
@@ -3190,23 +3240,23 @@
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="20"/>
-      <c r="I58" s="8">
+      <c r="G58" s="13"/>
+      <c r="M58" s="8">
         <v>55</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K58" s="8">
+      <c r="N58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O58" s="8">
         <v>1228</v>
       </c>
-      <c r="L58" s="7"/>
-      <c r="O58" t="s">
+      <c r="P58" s="7"/>
+      <c r="S58" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="17"/>
+    <row r="59" spans="2:21">
+      <c r="B59" s="19"/>
       <c r="C59" s="4">
         <v>56</v>
       </c>
@@ -3219,23 +3269,23 @@
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="I59" s="8">
+      <c r="G59" s="13"/>
+      <c r="M59" s="8">
         <v>56</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K59" s="8">
+      <c r="N59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O59" s="8">
         <v>1229</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="O59" t="s">
+      <c r="P59" s="7"/>
+      <c r="S59" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B60" s="17"/>
+    <row r="60" spans="2:21">
+      <c r="B60" s="19"/>
       <c r="C60" s="4">
         <v>57</v>
       </c>
@@ -3248,23 +3298,23 @@
       <c r="F60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="I60" s="8">
+      <c r="G60" s="13"/>
+      <c r="M60" s="8">
         <v>57</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K60" s="8">
+      <c r="N60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O60" s="8">
         <v>1230</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="O60" t="s">
+      <c r="P60" s="7"/>
+      <c r="S60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
+    <row r="61" spans="2:21">
+      <c r="B61" s="19"/>
       <c r="C61" s="4">
         <v>58</v>
       </c>
@@ -3277,26 +3327,26 @@
       <c r="F61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="I61" s="8">
+      <c r="G61" s="13"/>
+      <c r="M61" s="8">
         <v>58</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K61" s="8">
+      <c r="N61" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O61" s="8">
         <v>1234</v>
       </c>
-      <c r="L61" s="7"/>
-      <c r="N61" t="s">
+      <c r="P61" s="7"/>
+      <c r="R61" t="s">
         <v>202</v>
       </c>
-      <c r="O61" t="s">
+      <c r="S61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
+    <row r="62" spans="2:21">
+      <c r="B62" s="19"/>
       <c r="C62" s="4">
         <v>59</v>
       </c>
@@ -3309,23 +3359,23 @@
       <c r="F62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="I62" s="8">
+      <c r="G62" s="13"/>
+      <c r="M62" s="8">
         <v>59</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K62" s="8">
+      <c r="N62" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O62" s="8">
         <v>1240</v>
       </c>
-      <c r="L62" s="7"/>
-      <c r="O62" t="s">
+      <c r="P62" s="7"/>
+      <c r="S62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
+    <row r="63" spans="2:21">
+      <c r="B63" s="19"/>
       <c r="C63" s="4">
         <v>60</v>
       </c>
@@ -3338,23 +3388,23 @@
       <c r="F63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="I63" s="8">
+      <c r="G63" s="13"/>
+      <c r="M63" s="8">
         <v>60</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K63" s="8">
+      <c r="N63" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O63" s="8">
         <v>1244</v>
       </c>
-      <c r="L63" s="7"/>
-      <c r="O63" t="s">
+      <c r="P63" s="7"/>
+      <c r="S63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B64" s="17" t="s">
+    <row r="64" spans="2:21">
+      <c r="B64" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="2">
@@ -3369,20 +3419,20 @@
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="I64" s="8">
+      <c r="G64" s="13"/>
+      <c r="M64" s="8">
         <v>61</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K64" s="8">
+      <c r="N64" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O64" s="8">
         <v>1289</v>
       </c>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="B65" s="19"/>
       <c r="C65" s="2">
         <v>62</v>
       </c>
@@ -3395,20 +3445,20 @@
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="I65" s="8">
+      <c r="G65" s="13"/>
+      <c r="M65" s="8">
         <v>62</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K65" s="8">
+      <c r="N65" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O65" s="8">
         <v>1491</v>
       </c>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="17"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="B66" s="19"/>
       <c r="C66" s="2">
         <v>63</v>
       </c>
@@ -3421,20 +3471,20 @@
       <c r="F66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="I66" s="8">
+      <c r="G66" s="13"/>
+      <c r="M66" s="8">
         <v>63</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K66" s="8">
+      <c r="N66" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O66" s="8">
         <v>1493</v>
       </c>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="17"/>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="B67" s="19"/>
       <c r="C67" s="2">
         <v>64</v>
       </c>
@@ -3447,20 +3497,20 @@
       <c r="F67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="I67" s="8">
+      <c r="G67" s="13"/>
+      <c r="M67" s="8">
         <v>64</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="8">
+      <c r="N67" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O67" s="8">
         <v>1860</v>
       </c>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="17"/>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="B68" s="19"/>
       <c r="C68" s="2">
         <v>65</v>
       </c>
@@ -3473,20 +3523,20 @@
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="I68" s="8">
+      <c r="G68" s="13"/>
+      <c r="M68" s="8">
         <v>65</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K68" s="8">
+      <c r="N68" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O68" s="8">
         <v>1873</v>
       </c>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="17"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="19"/>
       <c r="C69" s="4">
         <v>66</v>
       </c>
@@ -3499,20 +3549,20 @@
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="I69" s="8">
+      <c r="G69" s="13"/>
+      <c r="M69" s="8">
         <v>66</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K69" s="8">
+      <c r="N69" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O69" s="8">
         <v>2805</v>
       </c>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="17"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="19"/>
       <c r="C70" s="4">
         <v>67</v>
       </c>
@@ -3525,20 +3575,20 @@
       <c r="F70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="I70" s="8">
+      <c r="G70" s="13"/>
+      <c r="M70" s="8">
         <v>67</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K70" s="8">
+      <c r="N70" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O70" s="8">
         <v>2806</v>
       </c>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="19"/>
       <c r="C71" s="4">
         <v>68</v>
       </c>
@@ -3551,20 +3601,20 @@
       <c r="F71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="20"/>
-      <c r="I71" s="8">
+      <c r="G71" s="13"/>
+      <c r="M71" s="8">
         <v>68</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K71" s="8">
+      <c r="N71" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O71" s="8">
         <v>2814</v>
       </c>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="2">
@@ -3579,20 +3629,20 @@
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="20"/>
-      <c r="I72" s="8">
+      <c r="G72" s="13"/>
+      <c r="M72" s="8">
         <v>69</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K72" s="8">
+      <c r="N72" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O72" s="8">
         <v>2817</v>
       </c>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="B73" s="19"/>
       <c r="C73" s="2">
         <v>70</v>
       </c>
@@ -3605,20 +3655,20 @@
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="20"/>
-      <c r="I73" s="8">
+      <c r="G73" s="13"/>
+      <c r="M73" s="8">
         <v>70</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K73" s="8">
+      <c r="N73" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O73" s="8">
         <v>2930</v>
       </c>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
+      <c r="P73" s="7"/>
+    </row>
+    <row r="74" spans="2:16">
+      <c r="B74" s="19"/>
       <c r="C74" s="2">
         <v>71</v>
       </c>
@@ -3631,20 +3681,20 @@
       <c r="F74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="I74" s="8">
+      <c r="G74" s="13"/>
+      <c r="M74" s="8">
         <v>71</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K74" s="8">
+      <c r="N74" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O74" s="8">
         <v>2948</v>
       </c>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="17"/>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="2:16">
+      <c r="B75" s="19"/>
       <c r="C75" s="2">
         <v>72</v>
       </c>
@@ -3657,20 +3707,20 @@
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="20"/>
-      <c r="I75" s="8">
+      <c r="G75" s="13"/>
+      <c r="M75" s="8">
         <v>72</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K75" s="8">
+      <c r="N75" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O75" s="8">
         <v>3032</v>
       </c>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="17"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="2:16">
+      <c r="B76" s="19"/>
       <c r="C76" s="4">
         <v>73</v>
       </c>
@@ -3683,20 +3733,20 @@
       <c r="F76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="20"/>
-      <c r="I76" s="8">
+      <c r="G76" s="13"/>
+      <c r="M76" s="8">
         <v>73</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K76" s="8">
+      <c r="N76" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O76" s="8">
         <v>3131</v>
       </c>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="2:16">
+      <c r="B77" s="19"/>
       <c r="C77" s="4">
         <v>74</v>
       </c>
@@ -3709,20 +3759,20 @@
       <c r="F77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="20"/>
-      <c r="I77" s="8">
+      <c r="G77" s="13"/>
+      <c r="M77" s="8">
         <v>74</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K77" s="8">
+      <c r="N77" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O77" s="8">
         <v>3142</v>
       </c>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="17" t="s">
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="2">
@@ -3737,20 +3787,20 @@
       <c r="F78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="20"/>
-      <c r="I78" s="8">
+      <c r="G78" s="13"/>
+      <c r="M78" s="8">
         <v>75</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K78" s="8">
+      <c r="N78" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O78" s="8">
         <v>3233</v>
       </c>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="17"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="2:16">
+      <c r="B79" s="19"/>
       <c r="C79" s="2">
         <v>76</v>
       </c>
@@ -3763,20 +3813,20 @@
       <c r="F79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="20"/>
-      <c r="I79" s="8">
+      <c r="G79" s="13"/>
+      <c r="M79" s="8">
         <v>76</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K79" s="8">
+      <c r="N79" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O79" s="8">
         <v>3260</v>
       </c>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="17"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="2:16">
+      <c r="B80" s="19"/>
       <c r="C80" s="2">
         <v>77</v>
       </c>
@@ -3789,20 +3839,20 @@
       <c r="F80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="20"/>
-      <c r="I80" s="8">
+      <c r="G80" s="13"/>
+      <c r="M80" s="8">
         <v>77</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K80" s="8">
+      <c r="N80" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O80" s="8">
         <v>3282</v>
       </c>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="19"/>
       <c r="C81" s="2">
         <v>78</v>
       </c>
@@ -3815,20 +3865,20 @@
       <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="20"/>
-      <c r="I81" s="8">
+      <c r="G81" s="13"/>
+      <c r="M81" s="8">
         <v>78</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K81" s="8">
+      <c r="N81" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O81" s="8">
         <v>3304</v>
       </c>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="17"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="19"/>
       <c r="C82" s="4">
         <v>79</v>
       </c>
@@ -3841,20 +3891,20 @@
       <c r="F82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="20"/>
-      <c r="I82" s="8">
+      <c r="G82" s="13"/>
+      <c r="M82" s="8">
         <v>79</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K82" s="8">
+      <c r="N82" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O82" s="8">
         <v>3307</v>
       </c>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="17"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="19"/>
       <c r="C83" s="4">
         <v>80</v>
       </c>
@@ -3867,20 +3917,20 @@
       <c r="F83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="I83" s="8">
+      <c r="G83" s="13"/>
+      <c r="M83" s="8">
         <v>80</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K83" s="8">
+      <c r="N83" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O83" s="8">
         <v>3314</v>
       </c>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="17"/>
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="19"/>
       <c r="C84" s="4">
         <v>81</v>
       </c>
@@ -3893,20 +3943,20 @@
       <c r="F84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="I84" s="8">
+      <c r="G84" s="13"/>
+      <c r="M84" s="8">
         <v>81</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K84" s="8">
+      <c r="N84" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O84" s="8">
         <v>3376</v>
       </c>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="19"/>
       <c r="C85" s="4">
         <v>82</v>
       </c>
@@ -3919,20 +3969,20 @@
       <c r="F85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="I85" s="8">
+      <c r="G85" s="13"/>
+      <c r="M85" s="8">
         <v>82</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K85" s="8">
+      <c r="N85" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O85" s="8">
         <v>3408</v>
       </c>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="17"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="19"/>
       <c r="C86" s="4">
         <v>83</v>
       </c>
@@ -3945,20 +3995,20 @@
       <c r="F86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="I86" s="8">
+      <c r="G86" s="13"/>
+      <c r="M86" s="8">
         <v>83</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K86" s="8">
+      <c r="N86" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O86" s="8">
         <v>3431</v>
       </c>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="17"/>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="19"/>
       <c r="C87" s="4">
         <v>84</v>
       </c>
@@ -3971,20 +4021,20 @@
       <c r="F87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="I87" s="8">
+      <c r="G87" s="13"/>
+      <c r="M87" s="8">
         <v>84</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K87" s="8">
+      <c r="N87" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O87" s="8">
         <v>3456</v>
       </c>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="17" t="s">
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4">
@@ -3999,20 +4049,20 @@
       <c r="F88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="I88" s="8">
+      <c r="G88" s="13"/>
+      <c r="M88" s="8">
         <v>85</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K88" s="8">
+      <c r="N88" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O88" s="8">
         <v>3499</v>
       </c>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="17"/>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="19"/>
       <c r="C89" s="4">
         <v>86</v>
       </c>
@@ -4025,20 +4075,20 @@
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="I89" s="8">
+      <c r="G89" s="13"/>
+      <c r="M89" s="8">
         <v>86</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K89" s="8">
+      <c r="N89" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O89" s="8">
         <v>3750</v>
       </c>
-      <c r="L89" s="7"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="17"/>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="19"/>
       <c r="C90" s="4">
         <v>87</v>
       </c>
@@ -4051,20 +4101,20 @@
       <c r="F90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="I90" s="8">
+      <c r="G90" s="13"/>
+      <c r="M90" s="8">
         <v>87</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K90" s="8">
+      <c r="N90" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O90" s="8">
         <v>3809</v>
       </c>
-      <c r="L90" s="7"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="17"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="19"/>
       <c r="C91" s="4">
         <v>88</v>
       </c>
@@ -4077,20 +4127,20 @@
       <c r="F91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="I91" s="8">
+      <c r="G91" s="13"/>
+      <c r="M91" s="8">
         <v>88</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91" s="8">
+      <c r="N91" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O91" s="8">
         <v>3975</v>
       </c>
-      <c r="L91" s="7"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="17"/>
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="19"/>
       <c r="C92" s="4">
         <v>89</v>
       </c>
@@ -4103,20 +4153,20 @@
       <c r="F92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="I92" s="8">
+      <c r="G92" s="13"/>
+      <c r="M92" s="8">
         <v>89</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K92" s="8">
+      <c r="N92" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O92" s="8">
         <v>4047</v>
       </c>
-      <c r="L92" s="7"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
+      <c r="P92" s="7"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="19"/>
       <c r="C93" s="2">
         <v>90</v>
       </c>
@@ -4129,20 +4179,20 @@
       <c r="F93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="20"/>
-      <c r="I93" s="8">
+      <c r="G93" s="13"/>
+      <c r="M93" s="8">
         <v>90</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93" s="8">
+      <c r="N93" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O93" s="8">
         <v>4299</v>
       </c>
-      <c r="L93" s="7"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
+      <c r="P93" s="7"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="19"/>
       <c r="C94" s="2">
         <v>91</v>
       </c>
@@ -4155,20 +4205,20 @@
       <c r="F94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="I94" s="8">
+      <c r="G94" s="13"/>
+      <c r="M94" s="8">
         <v>91</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K94" s="8">
+      <c r="N94" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O94" s="8">
         <v>4371</v>
       </c>
-      <c r="L94" s="7"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="17"/>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="19"/>
       <c r="C95" s="2">
         <v>92</v>
       </c>
@@ -4181,20 +4231,20 @@
       <c r="F95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="20"/>
-      <c r="I95" s="8">
+      <c r="G95" s="13"/>
+      <c r="M95" s="8">
         <v>92</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K95" s="8">
+      <c r="N95" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O95" s="8">
         <v>4406</v>
       </c>
-      <c r="L95" s="7"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="17"/>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="19"/>
       <c r="C96" s="2">
         <v>93</v>
       </c>
@@ -4207,20 +4257,20 @@
       <c r="F96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="20"/>
-      <c r="I96" s="8">
+      <c r="G96" s="13"/>
+      <c r="M96" s="8">
         <v>93</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K96" s="8">
+      <c r="N96" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O96" s="8">
         <v>4466</v>
       </c>
-      <c r="L96" s="7"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
+      <c r="P96" s="7"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="19"/>
       <c r="C97" s="2">
         <v>94</v>
       </c>
@@ -4233,20 +4283,20 @@
       <c r="F97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="20"/>
-      <c r="I97" s="8">
+      <c r="G97" s="13"/>
+      <c r="M97" s="8">
         <v>94</v>
       </c>
-      <c r="J97" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K97" s="8">
+      <c r="N97" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O97" s="8">
         <v>4522</v>
       </c>
-      <c r="L97" s="7"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B98" s="17"/>
+      <c r="P97" s="7"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="19"/>
       <c r="C98" s="2">
         <v>95</v>
       </c>
@@ -4259,20 +4309,20 @@
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="20"/>
-      <c r="I98" s="8">
+      <c r="G98" s="13"/>
+      <c r="M98" s="8">
         <v>95</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K98" s="8">
+      <c r="N98" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O98" s="8">
         <v>4579</v>
       </c>
-      <c r="L98" s="7"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B99" s="17" t="s">
+      <c r="P98" s="7"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C99" s="4">
@@ -4287,20 +4337,20 @@
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="20"/>
-      <c r="I99" s="8">
+      <c r="G99" s="13"/>
+      <c r="M99" s="8">
         <v>96</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K99" s="8">
+      <c r="N99" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O99" s="8">
         <v>4615</v>
       </c>
-      <c r="L99" s="7"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="17"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="19"/>
       <c r="C100" s="4">
         <v>97</v>
       </c>
@@ -4313,20 +4363,20 @@
       <c r="F100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="20"/>
-      <c r="I100" s="8">
+      <c r="G100" s="13"/>
+      <c r="M100" s="8">
         <v>97</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K100" s="8">
+      <c r="N100" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O100" s="8">
         <v>4676</v>
       </c>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
+      <c r="P100" s="7"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="19"/>
       <c r="C101" s="4">
         <v>98</v>
       </c>
@@ -4339,20 +4389,20 @@
       <c r="F101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="20"/>
-      <c r="I101" s="8">
+      <c r="G101" s="13"/>
+      <c r="M101" s="8">
         <v>98</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K101" s="8">
+      <c r="N101" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O101" s="8">
         <v>4698</v>
       </c>
-      <c r="L101" s="7"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B102" s="17"/>
+      <c r="P101" s="7"/>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="19"/>
       <c r="C102" s="4">
         <v>99</v>
       </c>
@@ -4365,20 +4415,20 @@
       <c r="F102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="I102" s="8">
+      <c r="G102" s="13"/>
+      <c r="M102" s="8">
         <v>99</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K102" s="8">
+      <c r="N102" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O102" s="8">
         <v>4751</v>
       </c>
-      <c r="L102" s="7"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B103" s="17"/>
+      <c r="P102" s="7"/>
+    </row>
+    <row r="103" spans="2:16">
+      <c r="B103" s="19"/>
       <c r="C103" s="4">
         <v>100</v>
       </c>
@@ -4391,20 +4441,20 @@
       <c r="F103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="I103" s="8">
+      <c r="G103" s="13"/>
+      <c r="M103" s="8">
         <v>100</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K103" s="8">
+      <c r="N103" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O103" s="8">
         <v>4789</v>
       </c>
-      <c r="L103" s="7"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="17"/>
+      <c r="P103" s="7"/>
+    </row>
+    <row r="104" spans="2:16">
+      <c r="B104" s="19"/>
       <c r="C104" s="2">
         <v>101</v>
       </c>
@@ -4417,20 +4467,20 @@
       <c r="F104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="20"/>
-      <c r="I104" s="8">
+      <c r="G104" s="13"/>
+      <c r="M104" s="8">
         <v>101</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K104" s="8">
+      <c r="N104" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O104" s="8">
         <v>5162</v>
       </c>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="17"/>
+      <c r="P104" s="7"/>
+    </row>
+    <row r="105" spans="2:16">
+      <c r="B105" s="19"/>
       <c r="C105" s="2">
         <v>102</v>
       </c>
@@ -4443,20 +4493,20 @@
       <c r="F105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="20"/>
-      <c r="I105" s="8">
+      <c r="G105" s="13"/>
+      <c r="M105" s="8">
         <v>102</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K105" s="8">
+      <c r="N105" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O105" s="8">
         <v>5215</v>
       </c>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B106" s="17"/>
+      <c r="P105" s="7"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="19"/>
       <c r="C106" s="2">
         <v>103</v>
       </c>
@@ -4469,20 +4519,20 @@
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="20"/>
-      <c r="I106" s="8">
+      <c r="G106" s="13"/>
+      <c r="M106" s="8">
         <v>103</v>
       </c>
-      <c r="J106" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K106" s="8">
+      <c r="N106" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O106" s="8">
         <v>5293</v>
       </c>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B107" s="17"/>
+      <c r="P106" s="7"/>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="19"/>
       <c r="C107" s="2">
         <v>104</v>
       </c>
@@ -4495,20 +4545,20 @@
       <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="20"/>
-      <c r="I107" s="8">
+      <c r="G107" s="13"/>
+      <c r="M107" s="8">
         <v>104</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K107" s="8">
+      <c r="N107" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O107" s="8">
         <v>5356</v>
       </c>
-      <c r="L107" s="7"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="17" t="s">
+      <c r="P107" s="7"/>
+    </row>
+    <row r="108" spans="2:16">
+      <c r="B108" s="19" t="s">
         <v>124</v>
       </c>
       <c r="C108" s="4">
@@ -4523,20 +4573,20 @@
       <c r="F108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="20"/>
-      <c r="I108" s="8">
+      <c r="G108" s="13"/>
+      <c r="M108" s="8">
         <v>105</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K108" s="8">
+      <c r="N108" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O108" s="8">
         <v>5431</v>
       </c>
-      <c r="L108" s="7"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="17"/>
+      <c r="P108" s="7"/>
+    </row>
+    <row r="109" spans="2:16">
+      <c r="B109" s="19"/>
       <c r="C109" s="4">
         <v>106</v>
       </c>
@@ -4549,20 +4599,20 @@
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="20"/>
-      <c r="I109" s="8">
+      <c r="G109" s="13"/>
+      <c r="M109" s="8">
         <v>106</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K109" s="8">
+      <c r="N109" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O109" s="8">
         <v>5515</v>
       </c>
-      <c r="L109" s="7"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="17"/>
+      <c r="P109" s="7"/>
+    </row>
+    <row r="110" spans="2:16">
+      <c r="B110" s="19"/>
       <c r="C110" s="4">
         <v>107</v>
       </c>
@@ -4575,20 +4625,20 @@
       <c r="F110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="20"/>
-      <c r="I110" s="8">
+      <c r="G110" s="13"/>
+      <c r="M110" s="8">
         <v>107</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K110" s="8">
+      <c r="N110" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O110" s="8">
         <v>5549</v>
       </c>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B111" s="17"/>
+      <c r="P110" s="7"/>
+    </row>
+    <row r="111" spans="2:16">
+      <c r="B111" s="19"/>
       <c r="C111" s="4">
         <v>108</v>
       </c>
@@ -4601,20 +4651,20 @@
       <c r="F111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="I111" s="8">
+      <c r="G111" s="13"/>
+      <c r="M111" s="8">
         <v>108</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K111" s="8">
+      <c r="N111" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O111" s="8">
         <v>5601</v>
       </c>
-      <c r="L111" s="7"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="17"/>
+      <c r="P111" s="7"/>
+    </row>
+    <row r="112" spans="2:16">
+      <c r="B112" s="19"/>
       <c r="C112" s="4">
         <v>109</v>
       </c>
@@ -4627,20 +4677,20 @@
       <c r="F112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="20"/>
-      <c r="I112" s="8">
+      <c r="G112" s="13"/>
+      <c r="M112" s="8">
         <v>109</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K112" s="8">
+      <c r="N112" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O112" s="8">
         <v>5603</v>
       </c>
-      <c r="L112" s="7"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="17"/>
+      <c r="P112" s="7"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="19"/>
       <c r="C113" s="2">
         <v>110</v>
       </c>
@@ -4653,20 +4703,20 @@
       <c r="F113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="I113" s="8">
+      <c r="G113" s="13"/>
+      <c r="M113" s="8">
         <v>110</v>
       </c>
-      <c r="J113" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K113" s="8">
+      <c r="N113" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O113" s="8">
         <v>5607</v>
       </c>
-      <c r="L113" s="7"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B114" s="17"/>
+      <c r="P113" s="7"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="19"/>
       <c r="C114" s="2">
         <v>111</v>
       </c>
@@ -4679,20 +4729,20 @@
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="20"/>
-      <c r="I114" s="8">
+      <c r="G114" s="13"/>
+      <c r="M114" s="8">
         <v>111</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K114" s="8">
+      <c r="N114" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O114" s="8">
         <v>5642</v>
       </c>
-      <c r="L114" s="7"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="17"/>
+      <c r="P114" s="7"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="B115" s="19"/>
       <c r="C115" s="2">
         <v>112</v>
       </c>
@@ -4705,20 +4755,20 @@
       <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="20"/>
-      <c r="I115" s="8">
+      <c r="G115" s="13"/>
+      <c r="M115" s="8">
         <v>112</v>
       </c>
-      <c r="J115" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K115" s="8">
+      <c r="N115" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O115" s="8">
         <v>5688</v>
       </c>
-      <c r="L115" s="7"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B116" s="17"/>
+      <c r="P115" s="7"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="19"/>
       <c r="C116" s="2">
         <v>113</v>
       </c>
@@ -4731,20 +4781,20 @@
       <c r="F116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="20"/>
-      <c r="I116" s="8">
+      <c r="G116" s="13"/>
+      <c r="M116" s="8">
         <v>113</v>
       </c>
-      <c r="J116" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K116" s="8">
+      <c r="N116" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O116" s="8">
         <v>5789</v>
       </c>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B117" s="17" t="s">
+      <c r="P116" s="7"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="4">
@@ -4759,20 +4809,20 @@
       <c r="F117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="20"/>
-      <c r="I117" s="8">
+      <c r="G117" s="13"/>
+      <c r="M117" s="8">
         <v>114</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K117" s="8">
+      <c r="N117" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O117" s="8">
         <v>5948</v>
       </c>
-      <c r="L117" s="7"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B118" s="17"/>
+      <c r="P117" s="7"/>
+    </row>
+    <row r="118" spans="2:16">
+      <c r="B118" s="19"/>
       <c r="C118" s="4">
         <v>115</v>
       </c>
@@ -4785,20 +4835,20 @@
       <c r="F118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="20"/>
-      <c r="I118" s="8">
+      <c r="G118" s="13"/>
+      <c r="M118" s="8">
         <v>115</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K118" s="8">
+      <c r="N118" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O118" s="8">
         <v>5986</v>
       </c>
-      <c r="L118" s="7"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B119" s="17"/>
+      <c r="P118" s="7"/>
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" s="19"/>
       <c r="C119" s="4">
         <v>116</v>
       </c>
@@ -4811,20 +4861,20 @@
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="20"/>
-      <c r="I119" s="8">
+      <c r="G119" s="13"/>
+      <c r="M119" s="8">
         <v>116</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K119" s="8">
+      <c r="N119" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O119" s="8">
         <v>6019</v>
       </c>
-      <c r="L119" s="7"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B120" s="17"/>
+      <c r="P119" s="7"/>
+    </row>
+    <row r="120" spans="2:16">
+      <c r="B120" s="19"/>
       <c r="C120" s="4">
         <v>117</v>
       </c>
@@ -4837,20 +4887,20 @@
       <c r="F120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="20"/>
-      <c r="I120" s="8">
+      <c r="G120" s="13"/>
+      <c r="M120" s="8">
         <v>117</v>
       </c>
-      <c r="J120" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K120" s="8">
+      <c r="N120" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O120" s="8">
         <v>6057</v>
       </c>
-      <c r="L120" s="7"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
+      <c r="P120" s="7"/>
+    </row>
+    <row r="121" spans="2:16">
+      <c r="B121" s="19"/>
       <c r="C121" s="4">
         <v>118</v>
       </c>
@@ -4863,20 +4913,20 @@
       <c r="F121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="20"/>
-      <c r="I121" s="8">
+      <c r="G121" s="13"/>
+      <c r="M121" s="8">
         <v>118</v>
       </c>
-      <c r="J121" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K121" s="8">
+      <c r="N121" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O121" s="8">
         <v>6190</v>
       </c>
-      <c r="L121" s="7"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B122" s="17"/>
+      <c r="P121" s="7"/>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="B122" s="19"/>
       <c r="C122" s="4">
         <v>119</v>
       </c>
@@ -4889,20 +4939,20 @@
       <c r="F122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="I122" s="8">
+      <c r="G122" s="13"/>
+      <c r="M122" s="8">
         <v>119</v>
       </c>
-      <c r="J122" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K122" s="8">
+      <c r="N122" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O122" s="8">
         <v>6485</v>
       </c>
-      <c r="L122" s="7"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B123" s="17"/>
+      <c r="P122" s="7"/>
+    </row>
+    <row r="123" spans="2:16">
+      <c r="B123" s="19"/>
       <c r="C123" s="2">
         <v>120</v>
       </c>
@@ -4915,20 +4965,20 @@
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="20"/>
-      <c r="I123" s="8">
+      <c r="G123" s="13"/>
+      <c r="M123" s="8">
         <v>120</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K123" s="8">
+      <c r="N123" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O123" s="8">
         <v>6692</v>
       </c>
-      <c r="L123" s="7"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="17"/>
+      <c r="P123" s="7"/>
+    </row>
+    <row r="124" spans="2:16">
+      <c r="B124" s="19"/>
       <c r="C124" s="2">
         <v>121</v>
       </c>
@@ -4941,20 +4991,20 @@
       <c r="F124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="20"/>
-      <c r="I124" s="8">
+      <c r="G124" s="13"/>
+      <c r="M124" s="8">
         <v>121</v>
       </c>
-      <c r="J124" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K124" s="8">
+      <c r="N124" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O124" s="8">
         <v>7675</v>
       </c>
-      <c r="L124" s="7"/>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="17"/>
+      <c r="P124" s="7"/>
+    </row>
+    <row r="125" spans="2:16">
+      <c r="B125" s="19"/>
       <c r="C125" s="2">
         <v>122</v>
       </c>
@@ -4967,20 +5017,20 @@
       <c r="F125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="20"/>
-      <c r="I125" s="8">
+      <c r="G125" s="13"/>
+      <c r="M125" s="8">
         <v>122</v>
       </c>
-      <c r="J125" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K125" s="8">
+      <c r="N125" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O125" s="8">
         <v>1210</v>
       </c>
-      <c r="L125" s="7"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="17"/>
+      <c r="P125" s="7"/>
+    </row>
+    <row r="126" spans="2:16">
+      <c r="B126" s="19"/>
       <c r="C126" s="2">
         <v>123</v>
       </c>
@@ -4993,862 +5043,862 @@
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="20"/>
-      <c r="I126" s="8">
+      <c r="G126" s="13"/>
+      <c r="M126" s="8">
         <v>123</v>
       </c>
-      <c r="J126" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K126" s="8">
+      <c r="N126" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O126" s="8">
         <v>1211</v>
       </c>
-      <c r="L126" s="7"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I127" s="8">
+      <c r="P126" s="7"/>
+    </row>
+    <row r="127" spans="2:16">
+      <c r="M127" s="8">
         <v>124</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K127" s="8">
+      <c r="N127" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O127" s="8">
         <v>1218</v>
       </c>
-      <c r="L127" s="7"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I128" s="8">
+      <c r="P127" s="7"/>
+    </row>
+    <row r="128" spans="2:16">
+      <c r="M128" s="8">
         <v>125</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K128" s="8">
+      <c r="N128" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O128" s="8">
         <v>1219</v>
       </c>
-      <c r="L128" s="7"/>
-    </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I129" s="8">
+      <c r="P128" s="7"/>
+    </row>
+    <row r="129" spans="13:16">
+      <c r="M129" s="8">
         <v>126</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K129" s="8">
+      <c r="N129" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O129" s="8">
         <v>1222</v>
       </c>
-      <c r="L129" s="7"/>
-    </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I130" s="8">
+      <c r="P129" s="7"/>
+    </row>
+    <row r="130" spans="13:16">
+      <c r="M130" s="8">
         <v>127</v>
       </c>
-      <c r="J130" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K130" s="8">
+      <c r="N130" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O130" s="8">
         <v>1223</v>
       </c>
-      <c r="L130" s="7"/>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I131" s="8">
+      <c r="P130" s="7"/>
+    </row>
+    <row r="131" spans="13:16">
+      <c r="M131" s="8">
         <v>128</v>
       </c>
-      <c r="J131" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K131" s="8">
+      <c r="N131" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O131" s="8">
         <v>1224</v>
       </c>
-      <c r="L131" s="7"/>
-    </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I132" s="8">
+      <c r="P131" s="7"/>
+    </row>
+    <row r="132" spans="13:16">
+      <c r="M132" s="8">
         <v>129</v>
       </c>
-      <c r="J132" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K132" s="8">
+      <c r="N132" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O132" s="8">
         <v>1226</v>
       </c>
-      <c r="L132" s="7"/>
-    </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I133" s="8">
+      <c r="P132" s="7"/>
+    </row>
+    <row r="133" spans="13:16">
+      <c r="M133" s="8">
         <v>130</v>
       </c>
-      <c r="J133" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K133" s="8">
+      <c r="N133" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O133" s="8">
         <v>1227</v>
       </c>
-      <c r="L133" s="7"/>
-    </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I134" s="8">
+      <c r="P133" s="7"/>
+    </row>
+    <row r="134" spans="13:16">
+      <c r="M134" s="8">
         <v>131</v>
       </c>
-      <c r="J134" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K134" s="8">
+      <c r="N134" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O134" s="8">
         <v>1231</v>
       </c>
-      <c r="L134" s="7"/>
-    </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I135" s="8">
+      <c r="P134" s="7"/>
+    </row>
+    <row r="135" spans="13:16">
+      <c r="M135" s="8">
         <v>132</v>
       </c>
-      <c r="J135" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K135" s="8">
+      <c r="N135" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O135" s="8">
         <v>1232</v>
       </c>
-      <c r="L135" s="7"/>
-    </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I136" s="8">
+      <c r="P135" s="7"/>
+    </row>
+    <row r="136" spans="13:16">
+      <c r="M136" s="8">
         <v>133</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K136" s="8">
+      <c r="N136" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O136" s="8">
         <v>1233</v>
       </c>
-      <c r="L136" s="7"/>
-    </row>
-    <row r="137" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I137" s="8">
+      <c r="P136" s="7"/>
+    </row>
+    <row r="137" spans="13:16">
+      <c r="M137" s="8">
         <v>134</v>
       </c>
-      <c r="J137" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K137" s="8">
+      <c r="N137" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O137" s="8">
         <v>1238</v>
       </c>
-      <c r="L137" s="7"/>
-    </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I138" s="8">
+      <c r="P137" s="7"/>
+    </row>
+    <row r="138" spans="13:16">
+      <c r="M138" s="8">
         <v>135</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K138" s="8">
+      <c r="N138" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O138" s="8">
         <v>1249</v>
       </c>
-      <c r="L138" s="7"/>
-    </row>
-    <row r="139" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I139" s="8">
+      <c r="P138" s="7"/>
+    </row>
+    <row r="139" spans="13:16">
+      <c r="M139" s="8">
         <v>136</v>
       </c>
-      <c r="J139" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K139" s="8">
+      <c r="N139" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O139" s="8">
         <v>1251</v>
       </c>
-      <c r="L139" s="7"/>
-    </row>
-    <row r="140" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I140" s="8">
+      <c r="P139" s="7"/>
+    </row>
+    <row r="140" spans="13:16">
+      <c r="M140" s="8">
         <v>137</v>
       </c>
-      <c r="J140" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K140" s="8">
+      <c r="N140" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O140" s="8">
         <v>1258</v>
       </c>
-      <c r="L140" s="7"/>
-    </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I141" s="8">
+      <c r="P140" s="7"/>
+    </row>
+    <row r="141" spans="13:16">
+      <c r="M141" s="8">
         <v>138</v>
       </c>
-      <c r="J141" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K141" s="8">
+      <c r="N141" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O141" s="8">
         <v>1486</v>
       </c>
-      <c r="L141" s="7"/>
-    </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I142" s="8">
+      <c r="P141" s="7"/>
+    </row>
+    <row r="142" spans="13:16">
+      <c r="M142" s="8">
         <v>139</v>
       </c>
-      <c r="J142" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K142" s="8">
+      <c r="N142" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O142" s="8">
         <v>1494</v>
       </c>
-      <c r="L142" s="7"/>
-    </row>
-    <row r="143" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I143" s="8">
+      <c r="P142" s="7"/>
+    </row>
+    <row r="143" spans="13:16">
+      <c r="M143" s="8">
         <v>140</v>
       </c>
-      <c r="J143" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K143" s="8">
+      <c r="N143" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O143" s="8">
         <v>1803</v>
       </c>
-      <c r="L143" s="7"/>
-    </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I144" s="8">
+      <c r="P143" s="7"/>
+    </row>
+    <row r="144" spans="13:16">
+      <c r="M144" s="8">
         <v>141</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K144" s="8">
+      <c r="N144" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O144" s="8">
         <v>1808</v>
       </c>
-      <c r="L144" s="7"/>
-    </row>
-    <row r="145" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I145" s="8">
+      <c r="P144" s="7"/>
+    </row>
+    <row r="145" spans="13:16">
+      <c r="M145" s="8">
         <v>142</v>
       </c>
-      <c r="J145" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K145" s="8">
+      <c r="N145" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O145" s="8">
         <v>1824</v>
       </c>
-      <c r="L145" s="7"/>
-    </row>
-    <row r="146" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I146" s="8">
+      <c r="P145" s="7"/>
+    </row>
+    <row r="146" spans="13:16">
+      <c r="M146" s="8">
         <v>143</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K146" s="8">
+      <c r="N146" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O146" s="8">
         <v>1861</v>
       </c>
-      <c r="L146" s="7"/>
-    </row>
-    <row r="147" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I147" s="8">
+      <c r="P146" s="7"/>
+    </row>
+    <row r="147" spans="13:16">
+      <c r="M147" s="8">
         <v>144</v>
       </c>
-      <c r="J147" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K147" s="8">
+      <c r="N147" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O147" s="8">
         <v>1865</v>
       </c>
-      <c r="L147" s="7"/>
-    </row>
-    <row r="148" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I148" s="8">
+      <c r="P147" s="7"/>
+    </row>
+    <row r="148" spans="13:16">
+      <c r="M148" s="8">
         <v>145</v>
       </c>
-      <c r="J148" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K148" s="8">
+      <c r="N148" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O148" s="8">
         <v>1868</v>
       </c>
-      <c r="L148" s="7"/>
-    </row>
-    <row r="149" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I149" s="8">
+      <c r="P148" s="7"/>
+    </row>
+    <row r="149" spans="13:16">
+      <c r="M149" s="8">
         <v>146</v>
       </c>
-      <c r="J149" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K149" s="8">
+      <c r="N149" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O149" s="8">
         <v>2819</v>
       </c>
-      <c r="L149" s="7"/>
-    </row>
-    <row r="150" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I150" s="8">
+      <c r="P149" s="7"/>
+    </row>
+    <row r="150" spans="13:16">
+      <c r="M150" s="8">
         <v>147</v>
       </c>
-      <c r="J150" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K150" s="8">
+      <c r="N150" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O150" s="8">
         <v>2983</v>
       </c>
-      <c r="L150" s="7"/>
-    </row>
-    <row r="151" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I151" s="8">
-        <v>148</v>
-      </c>
-      <c r="J151" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K151" s="8">
+      <c r="P150" s="7"/>
+    </row>
+    <row r="151" spans="13:16">
+      <c r="M151" s="8">
+        <v>148</v>
+      </c>
+      <c r="N151" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O151" s="8">
         <v>3000</v>
       </c>
-      <c r="L151" s="7"/>
-    </row>
-    <row r="152" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I152" s="8">
-        <v>149</v>
-      </c>
-      <c r="J152" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K152" s="8">
+      <c r="P151" s="7"/>
+    </row>
+    <row r="152" spans="13:16">
+      <c r="M152" s="8">
+        <v>149</v>
+      </c>
+      <c r="N152" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O152" s="8">
         <v>3064</v>
       </c>
-      <c r="L152" s="7"/>
-    </row>
-    <row r="153" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I153" s="8">
+      <c r="P152" s="7"/>
+    </row>
+    <row r="153" spans="13:16">
+      <c r="M153" s="8">
         <v>150</v>
       </c>
-      <c r="J153" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K153" s="8">
+      <c r="N153" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O153" s="8">
         <v>3074</v>
       </c>
-      <c r="L153" s="7"/>
-    </row>
-    <row r="154" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I154" s="8">
+      <c r="P153" s="7"/>
+    </row>
+    <row r="154" spans="13:16">
+      <c r="M154" s="8">
         <v>151</v>
       </c>
-      <c r="J154" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K154" s="8">
+      <c r="N154" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O154" s="8">
         <v>3124</v>
       </c>
-      <c r="L154" s="7"/>
-    </row>
-    <row r="155" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I155" s="8">
+      <c r="P154" s="7"/>
+    </row>
+    <row r="155" spans="13:16">
+      <c r="M155" s="8">
         <v>152</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K155" s="8">
+      <c r="N155" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O155" s="8">
         <v>3143</v>
       </c>
-      <c r="L155" s="7"/>
-    </row>
-    <row r="156" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I156" s="8">
+      <c r="P155" s="7"/>
+    </row>
+    <row r="156" spans="13:16">
+      <c r="M156" s="8">
         <v>153</v>
       </c>
-      <c r="J156" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K156" s="8">
+      <c r="N156" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O156" s="8">
         <v>3234</v>
       </c>
-      <c r="L156" s="7"/>
-    </row>
-    <row r="157" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I157" s="8">
+      <c r="P156" s="7"/>
+    </row>
+    <row r="157" spans="13:16">
+      <c r="M157" s="8">
         <v>154</v>
       </c>
-      <c r="J157" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K157" s="8">
+      <c r="N157" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O157" s="8">
         <v>3263</v>
       </c>
-      <c r="L157" s="7"/>
-    </row>
-    <row r="158" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I158" s="8">
+      <c r="P157" s="7"/>
+    </row>
+    <row r="158" spans="13:16">
+      <c r="M158" s="8">
         <v>155</v>
       </c>
-      <c r="J158" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K158" s="8">
+      <c r="N158" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O158" s="8">
         <v>3289</v>
       </c>
-      <c r="L158" s="7"/>
-    </row>
-    <row r="159" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I159" s="8">
+      <c r="P158" s="7"/>
+    </row>
+    <row r="159" spans="13:16">
+      <c r="M159" s="8">
         <v>156</v>
       </c>
-      <c r="J159" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K159" s="8">
+      <c r="N159" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O159" s="8">
         <v>3316</v>
       </c>
-      <c r="L159" s="7"/>
-    </row>
-    <row r="160" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I160" s="8">
+      <c r="P159" s="7"/>
+    </row>
+    <row r="160" spans="13:16">
+      <c r="M160" s="8">
         <v>157</v>
       </c>
-      <c r="J160" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K160" s="8">
+      <c r="N160" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O160" s="8">
         <v>3347</v>
       </c>
-      <c r="L160" s="7"/>
-    </row>
-    <row r="161" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I161" s="8">
+      <c r="P160" s="7"/>
+    </row>
+    <row r="161" spans="13:16">
+      <c r="M161" s="8">
         <v>158</v>
       </c>
-      <c r="J161" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K161" s="8">
+      <c r="N161" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O161" s="8">
         <v>3349</v>
       </c>
-      <c r="L161" s="7"/>
-    </row>
-    <row r="162" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I162" s="8">
+      <c r="P161" s="7"/>
+    </row>
+    <row r="162" spans="13:16">
+      <c r="M162" s="8">
         <v>159</v>
       </c>
-      <c r="J162" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K162" s="8">
+      <c r="N162" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O162" s="8">
         <v>3378</v>
       </c>
-      <c r="L162" s="7"/>
-    </row>
-    <row r="163" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I163" s="8">
+      <c r="P162" s="7"/>
+    </row>
+    <row r="163" spans="13:16">
+      <c r="M163" s="8">
         <v>160</v>
       </c>
-      <c r="J163" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K163" s="8">
+      <c r="N163" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O163" s="8">
         <v>3459</v>
       </c>
-      <c r="L163" s="7"/>
-    </row>
-    <row r="164" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I164" s="8">
+      <c r="P163" s="7"/>
+    </row>
+    <row r="164" spans="13:16">
+      <c r="M164" s="8">
         <v>161</v>
       </c>
-      <c r="J164" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K164" s="8">
+      <c r="N164" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O164" s="8">
         <v>3501</v>
       </c>
-      <c r="L164" s="7"/>
-    </row>
-    <row r="165" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I165" s="8">
+      <c r="P164" s="7"/>
+    </row>
+    <row r="165" spans="13:16">
+      <c r="M165" s="8">
         <v>162</v>
       </c>
-      <c r="J165" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K165" s="8">
+      <c r="N165" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O165" s="8">
         <v>3752</v>
       </c>
-      <c r="L165" s="7"/>
-    </row>
-    <row r="166" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I166" s="8">
+      <c r="P165" s="7"/>
+    </row>
+    <row r="166" spans="13:16">
+      <c r="M166" s="8">
         <v>163</v>
       </c>
-      <c r="J166" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K166" s="8">
+      <c r="N166" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O166" s="8">
         <v>3812</v>
       </c>
-      <c r="L166" s="7"/>
-    </row>
-    <row r="167" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I167" s="8">
+      <c r="P166" s="7"/>
+    </row>
+    <row r="167" spans="13:16">
+      <c r="M167" s="8">
         <v>164</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K167" s="8">
+      <c r="N167" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O167" s="8">
         <v>4050</v>
       </c>
-      <c r="L167" s="7"/>
-    </row>
-    <row r="168" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I168" s="8">
+      <c r="P167" s="7"/>
+    </row>
+    <row r="168" spans="13:16">
+      <c r="M168" s="8">
         <v>165</v>
       </c>
-      <c r="J168" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K168" s="8">
+      <c r="N168" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O168" s="8">
         <v>4111</v>
       </c>
-      <c r="L168" s="7"/>
-    </row>
-    <row r="169" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I169" s="8">
+      <c r="P168" s="7"/>
+    </row>
+    <row r="169" spans="13:16">
+      <c r="M169" s="8">
         <v>166</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K169" s="8">
+      <c r="N169" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O169" s="8">
         <v>4259</v>
       </c>
-      <c r="L169" s="7"/>
-    </row>
-    <row r="170" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I170" s="8">
+      <c r="P169" s="7"/>
+    </row>
+    <row r="170" spans="13:16">
+      <c r="M170" s="8">
         <v>167</v>
       </c>
-      <c r="J170" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K170" s="8">
+      <c r="N170" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O170" s="8">
         <v>4261</v>
       </c>
-      <c r="L170" s="7"/>
-    </row>
-    <row r="171" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I171" s="8">
+      <c r="P170" s="7"/>
+    </row>
+    <row r="171" spans="13:16">
+      <c r="M171" s="8">
         <v>168</v>
       </c>
-      <c r="J171" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K171" s="8">
+      <c r="N171" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O171" s="8">
         <v>4301</v>
       </c>
-      <c r="L171" s="7"/>
-    </row>
-    <row r="172" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I172" s="8">
+      <c r="P171" s="7"/>
+    </row>
+    <row r="172" spans="13:16">
+      <c r="M172" s="8">
         <v>169</v>
       </c>
-      <c r="J172" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K172" s="8">
+      <c r="N172" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O172" s="8">
         <v>4366</v>
       </c>
-      <c r="L172" s="7"/>
-    </row>
-    <row r="173" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I173" s="8">
+      <c r="P172" s="7"/>
+    </row>
+    <row r="173" spans="13:16">
+      <c r="M173" s="8">
         <v>170</v>
       </c>
-      <c r="J173" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K173" s="8">
+      <c r="N173" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O173" s="8">
         <v>4408</v>
       </c>
-      <c r="L173" s="7"/>
-    </row>
-    <row r="174" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I174" s="8">
+      <c r="P173" s="7"/>
+    </row>
+    <row r="174" spans="13:16">
+      <c r="M174" s="8">
         <v>171</v>
       </c>
-      <c r="J174" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K174" s="8">
+      <c r="N174" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O174" s="8">
         <v>4530</v>
       </c>
-      <c r="L174" s="7"/>
-    </row>
-    <row r="175" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I175" s="8">
+      <c r="P174" s="7"/>
+    </row>
+    <row r="175" spans="13:16">
+      <c r="M175" s="8">
         <v>172</v>
       </c>
-      <c r="J175" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K175" s="8">
+      <c r="N175" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O175" s="8">
         <v>4613</v>
       </c>
-      <c r="L175" s="7"/>
-    </row>
-    <row r="176" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I176" s="8">
+      <c r="P175" s="7"/>
+    </row>
+    <row r="176" spans="13:16">
+      <c r="M176" s="8">
         <v>173</v>
       </c>
-      <c r="J176" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K176" s="8">
+      <c r="N176" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O176" s="8">
         <v>4672</v>
       </c>
-      <c r="L176" s="7"/>
-    </row>
-    <row r="177" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I177" s="8">
+      <c r="P176" s="7"/>
+    </row>
+    <row r="177" spans="13:16">
+      <c r="M177" s="8">
         <v>174</v>
       </c>
-      <c r="J177" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K177" s="8">
+      <c r="N177" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O177" s="8">
         <v>4699</v>
       </c>
-      <c r="L177" s="7"/>
-    </row>
-    <row r="178" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I178" s="8">
+      <c r="P177" s="7"/>
+    </row>
+    <row r="178" spans="13:16">
+      <c r="M178" s="8">
         <v>175</v>
       </c>
-      <c r="J178" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K178" s="8">
+      <c r="N178" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O178" s="8">
         <v>5213</v>
       </c>
-      <c r="L178" s="7"/>
-    </row>
-    <row r="179" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I179" s="8">
+      <c r="P178" s="7"/>
+    </row>
+    <row r="179" spans="13:16">
+      <c r="M179" s="8">
         <v>176</v>
       </c>
-      <c r="J179" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K179" s="8">
+      <c r="N179" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O179" s="8">
         <v>5432</v>
       </c>
-      <c r="L179" s="7"/>
-    </row>
-    <row r="180" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I180" s="8">
+      <c r="P179" s="7"/>
+    </row>
+    <row r="180" spans="13:16">
+      <c r="M180" s="8">
         <v>177</v>
       </c>
-      <c r="J180" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K180" s="8">
+      <c r="N180" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O180" s="8">
         <v>5550</v>
       </c>
-      <c r="L180" s="7"/>
-    </row>
-    <row r="181" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I181" s="8">
+      <c r="P180" s="7"/>
+    </row>
+    <row r="181" spans="13:16">
+      <c r="M181" s="8">
         <v>178</v>
       </c>
-      <c r="J181" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K181" s="8">
+      <c r="N181" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O181" s="8">
         <v>5604</v>
       </c>
-      <c r="L181" s="7"/>
-    </row>
-    <row r="182" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I182" s="8">
+      <c r="P181" s="7"/>
+    </row>
+    <row r="182" spans="13:16">
+      <c r="M182" s="8">
         <v>179</v>
       </c>
-      <c r="J182" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K182" s="8">
+      <c r="N182" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O182" s="8">
         <v>5606</v>
       </c>
-      <c r="L182" s="7"/>
-    </row>
-    <row r="183" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I183" s="8">
+      <c r="P182" s="7"/>
+    </row>
+    <row r="183" spans="13:16">
+      <c r="M183" s="8">
         <v>180</v>
       </c>
-      <c r="J183" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K183" s="8">
+      <c r="N183" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O183" s="8">
         <v>5608</v>
       </c>
-      <c r="L183" s="7"/>
-    </row>
-    <row r="184" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I184" s="8">
+      <c r="P183" s="7"/>
+    </row>
+    <row r="184" spans="13:16">
+      <c r="M184" s="8">
         <v>181</v>
       </c>
-      <c r="J184" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K184" s="8">
+      <c r="N184" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O184" s="8">
         <v>5640</v>
       </c>
-      <c r="L184" s="7"/>
-    </row>
-    <row r="185" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I185" s="8">
+      <c r="P184" s="7"/>
+    </row>
+    <row r="185" spans="13:16">
+      <c r="M185" s="8">
         <v>182</v>
       </c>
-      <c r="J185" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K185" s="8">
+      <c r="N185" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O185" s="8">
         <v>5643</v>
       </c>
-      <c r="L185" s="7"/>
-    </row>
-    <row r="186" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I186" s="8">
+      <c r="P185" s="7"/>
+    </row>
+    <row r="186" spans="13:16">
+      <c r="M186" s="8">
         <v>183</v>
       </c>
-      <c r="J186" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K186" s="8">
+      <c r="N186" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O186" s="8">
         <v>5671</v>
       </c>
-      <c r="L186" s="7"/>
-    </row>
-    <row r="187" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I187" s="8">
+      <c r="P186" s="7"/>
+    </row>
+    <row r="187" spans="13:16">
+      <c r="M187" s="8">
         <v>184</v>
       </c>
-      <c r="J187" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K187" s="8">
+      <c r="N187" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O187" s="8">
         <v>5672</v>
       </c>
-      <c r="L187" s="7"/>
-    </row>
-    <row r="188" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I188" s="8">
+      <c r="P187" s="7"/>
+    </row>
+    <row r="188" spans="13:16">
+      <c r="M188" s="8">
         <v>185</v>
       </c>
-      <c r="J188" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K188" s="8">
+      <c r="N188" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O188" s="8">
         <v>5676</v>
       </c>
-      <c r="L188" s="7"/>
-    </row>
-    <row r="189" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I189" s="8">
+      <c r="P188" s="7"/>
+    </row>
+    <row r="189" spans="13:16">
+      <c r="M189" s="8">
         <v>186</v>
       </c>
-      <c r="J189" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K189" s="8">
+      <c r="N189" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O189" s="8">
         <v>5678</v>
       </c>
-      <c r="L189" s="7"/>
-    </row>
-    <row r="190" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I190" s="8">
+      <c r="P189" s="7"/>
+    </row>
+    <row r="190" spans="13:16">
+      <c r="M190" s="8">
         <v>187</v>
       </c>
-      <c r="J190" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K190" s="8">
+      <c r="N190" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O190" s="8">
         <v>5684</v>
       </c>
-      <c r="L190" s="7"/>
-    </row>
-    <row r="191" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I191" s="8">
+      <c r="P190" s="7"/>
+    </row>
+    <row r="191" spans="13:16">
+      <c r="M191" s="8">
         <v>188</v>
       </c>
-      <c r="J191" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K191" s="8">
+      <c r="N191" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O191" s="8">
         <v>5987</v>
       </c>
-      <c r="L191" s="7"/>
-    </row>
-    <row r="192" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I192" s="8">
+      <c r="P191" s="7"/>
+    </row>
+    <row r="192" spans="13:16">
+      <c r="M192" s="8">
         <v>189</v>
       </c>
-      <c r="J192" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K192" s="8">
+      <c r="N192" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O192" s="8">
         <v>6026</v>
       </c>
-      <c r="L192" s="7"/>
-    </row>
-    <row r="193" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I193" s="8">
+      <c r="P192" s="7"/>
+    </row>
+    <row r="193" spans="13:16">
+      <c r="M193" s="8">
         <v>190</v>
       </c>
-      <c r="J193" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K193" s="8">
+      <c r="N193" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O193" s="8">
         <v>6109</v>
       </c>
-      <c r="L193" s="7"/>
-    </row>
-    <row r="194" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I194" s="8">
+      <c r="P193" s="7"/>
+    </row>
+    <row r="194" spans="13:16">
+      <c r="M194" s="8">
         <v>191</v>
       </c>
-      <c r="J194" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K194" s="8">
+      <c r="N194" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O194" s="8">
         <v>6959</v>
       </c>
-      <c r="L194" s="7"/>
-    </row>
-    <row r="195" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I195" s="8">
+      <c r="P194" s="7"/>
+    </row>
+    <row r="195" spans="13:16">
+      <c r="M195" s="8">
         <v>192</v>
       </c>
-      <c r="J195" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K195" s="8">
+      <c r="N195" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O195" s="8">
         <v>7465</v>
       </c>
-      <c r="L195" s="7"/>
-    </row>
-    <row r="196" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I196" s="8">
+      <c r="P195" s="7"/>
+    </row>
+    <row r="196" spans="13:16">
+      <c r="M196" s="8">
         <v>193</v>
       </c>
-      <c r="J196" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K196" s="8">
+      <c r="N196" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O196" s="8">
         <v>7701</v>
       </c>
-      <c r="L196" s="7"/>
+      <c r="P196" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
+  <mergeCells count="16">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="B99:B107"/>
     <mergeCell ref="B108:B116"/>
     <mergeCell ref="B117:B126"/>
@@ -5862,6 +5912,7 @@
     <mergeCell ref="B4:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B45"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7DA58C-8CDF-431A-BF7E-8B3890046DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2C7DF-CAC6-4597-9292-A998F4633B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15675" yWindow="1950" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14955" yWindow="1965" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="215">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -664,6 +664,30 @@
   </si>
   <si>
     <t>추가문항</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+B -4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+B -9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/B -2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +948,28 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1202,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -1329,6 +1374,15 @@
       <c r="G4" s="14" t="s">
         <v>206</v>
       </c>
+      <c r="I4" s="13">
+        <v>1001</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M4" s="8">
         <v>1</v>
       </c>
@@ -1367,6 +1421,15 @@
       <c r="G5" s="14" t="s">
         <v>206</v>
       </c>
+      <c r="I5" s="13">
+        <v>1008</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M5" s="8">
         <v>2</v>
       </c>
@@ -1403,6 +1466,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="13"/>
+      <c r="I6" s="13">
+        <v>10951</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M6" s="8">
         <v>3</v>
       </c>
@@ -1441,6 +1513,13 @@
       <c r="G7" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="I7" s="13">
+        <v>10998</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="13"/>
       <c r="M7" s="8">
         <v>4</v>
       </c>
@@ -1479,6 +1558,13 @@
       <c r="G8" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="I8" s="13">
+        <v>15740</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="13"/>
       <c r="M8" s="8">
         <v>5</v>
       </c>
@@ -1517,6 +1603,13 @@
       <c r="G9" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="I9" s="13">
+        <v>15792</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="13"/>
       <c r="M9" s="8">
         <v>6</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2C7DF-CAC6-4597-9292-A998F4633B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B98CF-E9C5-4FD6-A2F2-7FF3126D4C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14955" yWindow="1965" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="215">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -948,28 +948,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1248,7 +1227,7 @@
   <dimension ref="B2:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -1519,7 +1498,9 @@
       <c r="J7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M7" s="8">
         <v>4</v>
       </c>
@@ -1564,7 +1545,9 @@
       <c r="J8" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M8" s="8">
         <v>5</v>
       </c>
@@ -1609,7 +1592,9 @@
       <c r="J9" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="M9" s="8">
         <v>6</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B98CF-E9C5-4FD6-A2F2-7FF3126D4C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F550E3-75B8-4468-B582-75AFD714AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14955" yWindow="1965" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13725" yWindow="1095" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="216">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -688,6 +688,10 @@
   </si>
   <si>
     <t>A/B -2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/29.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1226,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -1668,7 +1672,9 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="M11" s="8">
         <v>8</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F550E3-75B8-4468-B582-75AFD714AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DFE81D-B03A-4350-8E9B-2BAEBF151777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13725" yWindow="1095" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="226">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -692,6 +692,46 @@
   </si>
   <si>
     <t>8/29.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/31.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/3.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,6 +987,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,7 +1274,7 @@
   <dimension ref="B2:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -1637,6 +1680,15 @@
       <c r="G10" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="I10" s="23">
+        <v>2440</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M10" s="8">
         <v>7</v>
       </c>
@@ -1675,6 +1727,15 @@
       <c r="G11" s="13" t="s">
         <v>215</v>
       </c>
+      <c r="I11" s="23">
+        <v>2441</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M11" s="8">
         <v>8</v>
       </c>
@@ -1710,7 +1771,18 @@
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="23">
+        <v>2442</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M12" s="8">
         <v>9</v>
       </c>
@@ -1747,6 +1819,15 @@
         <v>12</v>
       </c>
       <c r="G13" s="13"/>
+      <c r="I13" s="23">
+        <v>2443</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M13" s="8">
         <v>10</v>
       </c>
@@ -1783,6 +1864,15 @@
         <v>12</v>
       </c>
       <c r="G14" s="13"/>
+      <c r="I14" s="23">
+        <v>2444</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M14" s="8">
         <v>11</v>
       </c>
@@ -1819,6 +1909,15 @@
         <v>12</v>
       </c>
       <c r="G15" s="13"/>
+      <c r="I15" s="23">
+        <v>2445</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M15" s="8">
         <v>12</v>
       </c>
@@ -1855,6 +1954,15 @@
         <v>12</v>
       </c>
       <c r="G16" s="13"/>
+      <c r="I16" s="23">
+        <v>2446</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="M16" s="8">
         <v>13</v>
       </c>
@@ -1891,6 +1999,13 @@
         <v>12</v>
       </c>
       <c r="G17" s="13"/>
+      <c r="I17" s="23">
+        <v>2447</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="M17" s="8">
         <v>14</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DFE81D-B03A-4350-8E9B-2BAEBF151777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF25E27-75C5-40D3-A1AB-6D97CCBDC441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10695" yWindow="1020" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="236">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -732,6 +740,37 @@
   </si>
   <si>
     <t>9/3.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 찍기 -11</t>
+  </si>
+  <si>
+    <t>별 찍기 -12</t>
+  </si>
+  <si>
+    <t>별 찍기 -13</t>
+  </si>
+  <si>
+    <t>별 찍기 -14</t>
+  </si>
+  <si>
+    <t>별 찍기 -15</t>
+  </si>
+  <si>
+    <t>별 찍기 -16</t>
+  </si>
+  <si>
+    <t>별 찍기 -17</t>
+  </si>
+  <si>
+    <t>별 찍기 -18</t>
+  </si>
+  <si>
+    <t>별 찍기 -19</t>
+  </si>
+  <si>
+    <t>9/4.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +850,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,12 +987,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -988,7 +1029,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,60 +1314,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.625" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="6" customWidth="1"/>
     <col min="20" max="20" width="31.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="13.375" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="30" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="16" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
@@ -1368,13 +1410,13 @@
       <c r="P3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1382,7 +1424,7 @@
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1397,41 +1439,41 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1001</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>1</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>1545</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="R4" s="11" t="s">
+      <c r="P4" s="11"/>
+      <c r="R4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>2669</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="10" t="s">
         <v>92</v>
       </c>
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1444,41 +1486,41 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>1008</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>2</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>1933</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="R5" s="11" t="s">
+      <c r="P5" s="11"/>
+      <c r="R5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>2635</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="9" t="s">
         <v>153</v>
       </c>
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1491,39 +1533,39 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="I6" s="13">
+      <c r="G6" s="21"/>
+      <c r="I6" s="11">
         <v>10951</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>3</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>1936</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="R6" s="11" t="s">
+      <c r="P6" s="11"/>
+      <c r="R6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>1244</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="9" t="s">
         <v>154</v>
       </c>
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -1536,41 +1578,41 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>10998</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>4</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>1938</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="R7" s="11" t="s">
+      <c r="P7" s="11"/>
+      <c r="R7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <v>2628</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="9" t="s">
         <v>155</v>
       </c>
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -1583,41 +1625,41 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>15740</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>5</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>2019</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="R8" s="11" t="s">
+      <c r="P8" s="11"/>
+      <c r="R8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <v>2116</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="9" t="s">
         <v>156</v>
       </c>
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4">
         <v>6</v>
       </c>
@@ -1630,41 +1672,41 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>15792</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>6</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>2025</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="R9" s="11" t="s">
+      <c r="P9" s="11"/>
+      <c r="R9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="9">
         <v>2304</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="9" t="s">
         <v>157</v>
       </c>
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4">
         <v>7</v>
       </c>
@@ -1677,41 +1719,41 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="11">
         <v>2440</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>7</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>2027</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="R10" s="11" t="s">
+      <c r="P10" s="11"/>
+      <c r="R10" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="9">
         <v>2559</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="9" t="s">
         <v>158</v>
       </c>
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4">
         <v>8</v>
       </c>
@@ -1724,41 +1766,41 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="11">
         <v>2441</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>8</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>2029</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="R11" s="11" t="s">
+      <c r="P11" s="11"/>
+      <c r="R11" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="9">
         <v>2578</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="9" t="s">
         <v>159</v>
       </c>
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4">
         <v>9</v>
       </c>
@@ -1771,41 +1813,41 @@
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="11">
         <v>2442</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>9</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>2043</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="R12" s="11" t="s">
+      <c r="P12" s="11"/>
+      <c r="R12" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="9">
         <v>2477</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="9" t="s">
         <v>160</v>
       </c>
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -1818,39 +1860,39 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="I13" s="23">
+      <c r="G13" s="11"/>
+      <c r="I13" s="11">
         <v>2443</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>10</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>2046</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="R13" s="11" t="s">
+      <c r="P13" s="11"/>
+      <c r="R13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="9">
         <v>2527</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="9" t="s">
         <v>161</v>
       </c>
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4">
         <v>11</v>
       </c>
@@ -1863,39 +1905,41 @@
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="I14" s="23">
+      <c r="G14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="11">
         <v>2444</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>11</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>2047</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="R14" s="11" t="s">
+      <c r="P14" s="11"/>
+      <c r="R14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="9">
         <v>10157</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="9" t="s">
         <v>162</v>
       </c>
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4">
         <v>12</v>
       </c>
@@ -1908,39 +1952,41 @@
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="I15" s="23">
+      <c r="G15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="11">
         <v>2445</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M15" s="8">
-        <v>12</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="M15" s="7">
+        <v>12</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>2050</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="R15" s="11" t="s">
+      <c r="P15" s="11"/>
+      <c r="R15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="9">
         <v>10158</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="9" t="s">
         <v>163</v>
       </c>
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4">
         <v>13</v>
       </c>
@@ -1953,39 +1999,41 @@
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="I16" s="23">
+      <c r="G16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="11">
         <v>2446</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>13</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>2056</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="R16" s="11" t="s">
+      <c r="P16" s="11"/>
+      <c r="R16" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="9">
         <v>10163</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="9" t="s">
         <v>164</v>
       </c>
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <v>14</v>
       </c>
@@ -1998,37 +2046,39 @@
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="I17" s="23">
+      <c r="G17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="11">
         <v>2447</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="M17" s="8">
+      <c r="K17" s="21"/>
+      <c r="M17" s="7">
         <v>14</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>2058</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="R17" s="11" t="s">
+      <c r="P17" s="11"/>
+      <c r="R17" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="9">
         <v>13300</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="9" t="s">
         <v>165</v>
       </c>
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <v>15</v>
       </c>
@@ -2041,30 +2091,39 @@
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="M18" s="8">
+      <c r="G18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2448</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="M18" s="7">
         <v>15</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>2063</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="R18" s="11" t="s">
+      <c r="P18" s="11"/>
+      <c r="R18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="9">
         <v>14696</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="9" t="s">
         <v>166</v>
       </c>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <v>16</v>
       </c>
@@ -2077,30 +2136,39 @@
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="M19" s="8">
+      <c r="G19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2522</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="M19" s="7">
         <v>16</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>2068</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="R19" s="11" t="s">
+      <c r="P19" s="11"/>
+      <c r="R19" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="9">
         <v>2309</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="19"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4">
         <v>17</v>
       </c>
@@ -2113,30 +2181,39 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="M20" s="8">
+      <c r="G20" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2523</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="M20" s="7">
         <v>17</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>2070</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="R20" s="11" t="s">
+      <c r="P20" s="11"/>
+      <c r="R20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="9">
         <v>2605</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="9" t="s">
         <v>167</v>
       </c>
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>18</v>
       </c>
@@ -2149,30 +2226,39 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="M21" s="8">
+      <c r="G21" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2556</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="M21" s="7">
         <v>18</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>2071</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="R21" s="11" t="s">
+      <c r="P21" s="11"/>
+      <c r="R21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="9">
         <v>2563</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="9" t="s">
         <v>164</v>
       </c>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="19"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4">
         <v>19</v>
       </c>
@@ -2185,32 +2271,39 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M22" s="8">
+      <c r="I22" s="11">
+        <v>10990</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="7">
         <v>19</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>2072</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="R22" s="11" t="s">
+      <c r="P22" s="11"/>
+      <c r="R22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="9">
         <v>2564</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="9" t="s">
         <v>168</v>
       </c>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="19"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4">
         <v>20</v>
       </c>
@@ -2223,32 +2316,39 @@
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M23" s="8">
+      <c r="I23" s="11">
+        <v>10991</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="7">
         <v>20</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>1204</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="R23" s="11" t="s">
+      <c r="P23" s="11"/>
+      <c r="R23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="9">
         <v>2491</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="9" t="s">
         <v>158</v>
       </c>
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="19"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4">
         <v>21</v>
       </c>
@@ -2261,22 +2361,29 @@
       <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M24" s="8">
+      <c r="I24" s="11">
+        <v>10992</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="M24" s="7">
         <v>21</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>1284</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="4">
         <v>22</v>
       </c>
@@ -2289,24 +2396,33 @@
       <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="M25" s="8">
+      <c r="G25" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="11">
+        <v>10993</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="M25" s="7">
         <v>22</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <v>1288</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="R25" s="10" t="s">
+      <c r="P25" s="11"/>
+      <c r="R25" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="T25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -2314,7 +2430,7 @@
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="19"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4">
         <v>23</v>
       </c>
@@ -2327,30 +2443,39 @@
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="M26" s="8">
+      <c r="G26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="11">
+        <v>10994</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="M26" s="7">
         <v>23</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>1859</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="R26" s="11" t="s">
+      <c r="P26" s="11"/>
+      <c r="R26" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="9">
         <v>2001</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="9" t="s">
         <v>169</v>
       </c>
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="19"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <v>24</v>
       </c>
@@ -2363,30 +2488,30 @@
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="M27" s="8">
+      <c r="G27" s="21"/>
+      <c r="M27" s="7">
         <v>24</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>1926</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="R27" s="11" t="s">
+      <c r="P27" s="11"/>
+      <c r="R27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="9">
         <v>1206</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="9" t="s">
         <v>170</v>
       </c>
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="19"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <v>25</v>
       </c>
@@ -2399,30 +2524,30 @@
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="M28" s="8">
+      <c r="G28" s="21"/>
+      <c r="M28" s="7">
         <v>25</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>1928</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="R28" s="11" t="s">
+      <c r="P28" s="11"/>
+      <c r="R28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="9">
         <v>1208</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="9" t="s">
         <v>171</v>
       </c>
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="19"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4">
         <v>26</v>
       </c>
@@ -2435,30 +2560,32 @@
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="M29" s="8">
+      <c r="G29" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="7">
         <v>26</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>1940</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="R29" s="11" t="s">
+      <c r="P29" s="11"/>
+      <c r="R29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="9">
         <v>4828</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="9" t="s">
         <v>172</v>
       </c>
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2">
@@ -2473,30 +2600,30 @@
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="M30" s="8">
+      <c r="G30" s="11"/>
+      <c r="M30" s="7">
         <v>27</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>1945</v>
       </c>
-      <c r="P30" s="7"/>
-      <c r="R30" s="11" t="s">
+      <c r="P30" s="11"/>
+      <c r="R30" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="9">
         <v>4834</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="9" t="s">
         <v>173</v>
       </c>
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="19"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2">
         <v>28</v>
       </c>
@@ -2509,30 +2636,30 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="M31" s="8">
+      <c r="G31" s="11"/>
+      <c r="M31" s="7">
         <v>28</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <v>1946</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="R31" s="11" t="s">
+      <c r="P31" s="11"/>
+      <c r="R31" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="9">
         <v>4835</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="9" t="s">
         <v>174</v>
       </c>
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="19"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2545,30 +2672,30 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="M32" s="8">
+      <c r="G32" s="11"/>
+      <c r="M32" s="7">
         <v>29</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <v>1948</v>
       </c>
-      <c r="P32" s="7"/>
-      <c r="R32" s="11" t="s">
+      <c r="P32" s="11"/>
+      <c r="R32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="9">
         <v>5431</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="9" t="s">
         <v>175</v>
       </c>
       <c r="U32" s="9"/>
     </row>
     <row r="33" spans="2:21">
-      <c r="B33" s="19"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2">
         <v>30</v>
       </c>
@@ -2581,30 +2708,30 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="M33" s="8">
+      <c r="G33" s="11"/>
+      <c r="M33" s="7">
         <v>30</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <v>1954</v>
       </c>
-      <c r="P33" s="7"/>
-      <c r="R33" s="11" t="s">
+      <c r="P33" s="11"/>
+      <c r="R33" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="9">
         <v>1970</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="9" t="s">
         <v>176</v>
       </c>
       <c r="U33" s="9"/>
     </row>
     <row r="34" spans="2:21">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2">
@@ -2619,30 +2746,30 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="M34" s="8">
+      <c r="G34" s="11"/>
+      <c r="M34" s="7">
         <v>31</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="N34" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <v>1959</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="R34" s="11" t="s">
+      <c r="P34" s="11"/>
+      <c r="R34" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="9">
         <v>1959</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="9" t="s">
         <v>177</v>
       </c>
       <c r="U34" s="9"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="B35" s="19"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2">
         <v>32</v>
       </c>
@@ -2655,30 +2782,30 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="M35" s="8">
+      <c r="G35" s="11"/>
+      <c r="M35" s="7">
         <v>32</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <v>1961</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="R35" s="11" t="s">
+      <c r="P35" s="11"/>
+      <c r="R35" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="9">
         <v>1209</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="9" t="s">
         <v>178</v>
       </c>
       <c r="U35" s="9"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="19"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2">
         <v>33</v>
       </c>
@@ -2691,30 +2818,30 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="M36" s="8">
+      <c r="G36" s="11"/>
+      <c r="M36" s="7">
         <v>33</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N36" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <v>1966</v>
       </c>
-      <c r="P36" s="7"/>
-      <c r="R36" s="11" t="s">
+      <c r="P36" s="11"/>
+      <c r="R36" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="9">
         <v>4836</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="9" t="s">
         <v>179</v>
       </c>
       <c r="U36" s="9"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="B37" s="19"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2">
         <v>34</v>
       </c>
@@ -2727,30 +2854,30 @@
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="M37" s="8">
+      <c r="G37" s="11"/>
+      <c r="M37" s="7">
         <v>34</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <v>1970</v>
       </c>
-      <c r="P37" s="7"/>
-      <c r="R37" s="11" t="s">
+      <c r="P37" s="11"/>
+      <c r="R37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="9">
         <v>4843</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="9" t="s">
         <v>180</v>
       </c>
       <c r="U37" s="9"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="19"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2">
         <v>35</v>
       </c>
@@ -2763,30 +2890,30 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="M38" s="8">
+      <c r="G38" s="11"/>
+      <c r="M38" s="7">
         <v>35</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="N38" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="7">
         <v>1974</v>
       </c>
-      <c r="P38" s="7"/>
-      <c r="R38" s="11" t="s">
+      <c r="P38" s="11"/>
+      <c r="R38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="9">
         <v>1210</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="9" t="s">
         <v>181</v>
       </c>
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="B39" s="19"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="4">
         <v>36</v>
       </c>
@@ -2799,30 +2926,30 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="M39" s="8">
+      <c r="G39" s="11"/>
+      <c r="M39" s="7">
         <v>36</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="7">
         <v>1976</v>
       </c>
-      <c r="P39" s="7"/>
-      <c r="R39" s="11" t="s">
+      <c r="P39" s="11"/>
+      <c r="R39" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="9">
         <v>1211</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T39" s="9" t="s">
         <v>182</v>
       </c>
       <c r="U39" s="9"/>
     </row>
     <row r="40" spans="2:21">
-      <c r="B40" s="19"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="4">
         <v>37</v>
       </c>
@@ -2835,30 +2962,30 @@
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="M40" s="8">
+      <c r="G40" s="11"/>
+      <c r="M40" s="7">
         <v>37</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <v>1979</v>
       </c>
-      <c r="P40" s="7"/>
-      <c r="R40" s="11" t="s">
+      <c r="P40" s="11"/>
+      <c r="R40" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="9">
         <v>1220</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="9" t="s">
         <v>183</v>
       </c>
       <c r="U40" s="9"/>
     </row>
     <row r="41" spans="2:21">
-      <c r="B41" s="19"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4">
         <v>38</v>
       </c>
@@ -2871,30 +2998,30 @@
       <c r="F41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="M41" s="8">
+      <c r="G41" s="11"/>
+      <c r="M41" s="7">
         <v>38</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="N41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="7">
         <v>1983</v>
       </c>
-      <c r="P41" s="7"/>
-      <c r="R41" s="11" t="s">
+      <c r="P41" s="11"/>
+      <c r="R41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="9">
         <v>1258</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="T41" s="9" t="s">
         <v>184</v>
       </c>
       <c r="U41" s="9"/>
     </row>
     <row r="42" spans="2:21">
-      <c r="B42" s="19"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="4">
         <v>39</v>
       </c>
@@ -2907,30 +3034,30 @@
       <c r="F42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="M42" s="8">
+      <c r="G42" s="11"/>
+      <c r="M42" s="7">
         <v>39</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="N42" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="7">
         <v>1984</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="R42" s="11" t="s">
+      <c r="P42" s="11"/>
+      <c r="R42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="9">
         <v>1974</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="9" t="s">
         <v>185</v>
       </c>
       <c r="U42" s="9"/>
     </row>
     <row r="43" spans="2:21">
-      <c r="B43" s="19"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="4">
         <v>40</v>
       </c>
@@ -2943,30 +3070,30 @@
       <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="M43" s="8">
+      <c r="G43" s="11"/>
+      <c r="M43" s="7">
         <v>40</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="7">
         <v>1986</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="R43" s="11" t="s">
+      <c r="P43" s="11"/>
+      <c r="R43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="9">
         <v>1961</v>
       </c>
-      <c r="T43" s="11" t="s">
+      <c r="T43" s="9" t="s">
         <v>186</v>
       </c>
       <c r="U43" s="9"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="19"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="4">
         <v>41</v>
       </c>
@@ -2979,30 +3106,30 @@
       <c r="F44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="M44" s="8">
+      <c r="G44" s="11"/>
+      <c r="M44" s="7">
         <v>41</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="7">
         <v>1989</v>
       </c>
-      <c r="P44" s="7"/>
-      <c r="R44" s="11" t="s">
+      <c r="P44" s="11"/>
+      <c r="R44" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="9">
         <v>4466</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="9" t="s">
         <v>187</v>
       </c>
       <c r="U44" s="9"/>
     </row>
     <row r="45" spans="2:21">
-      <c r="B45" s="19"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="4">
         <v>42</v>
       </c>
@@ -3015,30 +3142,30 @@
       <c r="F45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="M45" s="8">
+      <c r="G45" s="11"/>
+      <c r="M45" s="7">
         <v>42</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <v>2001</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="R45" s="11" t="s">
+      <c r="P45" s="11"/>
+      <c r="R45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="9">
         <v>1979</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="9" t="s">
         <v>188</v>
       </c>
       <c r="U45" s="9"/>
     </row>
     <row r="46" spans="2:21">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="2">
@@ -3053,30 +3180,30 @@
       <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="M46" s="8">
+      <c r="G46" s="11"/>
+      <c r="M46" s="7">
         <v>43</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="N46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="7">
         <v>2005</v>
       </c>
-      <c r="P46" s="7"/>
-      <c r="R46" s="11" t="s">
+      <c r="P46" s="11"/>
+      <c r="R46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="9">
         <v>2805</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="9" t="s">
         <v>189</v>
       </c>
       <c r="U46" s="9"/>
     </row>
     <row r="47" spans="2:21">
-      <c r="B47" s="19"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="2">
         <v>44</v>
       </c>
@@ -3089,30 +3216,30 @@
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="M47" s="8">
+      <c r="G47" s="11"/>
+      <c r="M47" s="7">
         <v>44</v>
       </c>
-      <c r="N47" s="8" t="s">
+      <c r="N47" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="7">
         <v>2007</v>
       </c>
-      <c r="P47" s="7"/>
-      <c r="R47" s="11" t="s">
+      <c r="P47" s="11"/>
+      <c r="R47" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="9">
         <v>6190</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="9" t="s">
         <v>190</v>
       </c>
       <c r="U47" s="9"/>
     </row>
     <row r="48" spans="2:21">
-      <c r="B48" s="19"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="2">
         <v>45</v>
       </c>
@@ -3125,30 +3252,30 @@
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="M48" s="8">
+      <c r="G48" s="11"/>
+      <c r="M48" s="7">
         <v>45</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O48" s="8">
+      <c r="N48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O48" s="7">
         <v>1206</v>
       </c>
-      <c r="P48" s="7"/>
-      <c r="R48" s="11" t="s">
+      <c r="P48" s="11"/>
+      <c r="R48" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="9">
         <v>1221</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="9" t="s">
         <v>191</v>
       </c>
       <c r="U48" s="9"/>
     </row>
     <row r="49" spans="2:21">
-      <c r="B49" s="19"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="2">
         <v>46</v>
       </c>
@@ -3161,30 +3288,30 @@
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="M49" s="8">
+      <c r="G49" s="11"/>
+      <c r="M49" s="7">
         <v>46</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O49" s="8">
+      <c r="N49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O49" s="7">
         <v>1208</v>
       </c>
-      <c r="P49" s="7"/>
-      <c r="R49" s="11" t="s">
+      <c r="P49" s="11"/>
+      <c r="R49" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="9">
         <v>1215</v>
       </c>
-      <c r="T49" s="11" t="s">
+      <c r="T49" s="9" t="s">
         <v>192</v>
       </c>
       <c r="U49" s="9"/>
     </row>
     <row r="50" spans="2:21">
-      <c r="B50" s="19"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="2">
         <v>47</v>
       </c>
@@ -3197,30 +3324,30 @@
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="M50" s="8">
+      <c r="G50" s="11"/>
+      <c r="M50" s="7">
         <v>47</v>
       </c>
-      <c r="N50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O50" s="8">
+      <c r="N50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O50" s="7">
         <v>1209</v>
       </c>
-      <c r="P50" s="7"/>
-      <c r="R50" s="11" t="s">
+      <c r="P50" s="11"/>
+      <c r="R50" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S50" s="9">
         <v>1216</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="9" t="s">
         <v>193</v>
       </c>
       <c r="U50" s="9"/>
     </row>
     <row r="51" spans="2:21">
-      <c r="B51" s="19"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="4">
         <v>48</v>
       </c>
@@ -3233,30 +3360,30 @@
       <c r="F51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="M51" s="8">
+      <c r="G51" s="11"/>
+      <c r="M51" s="7">
         <v>48</v>
       </c>
-      <c r="N51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O51" s="8">
+      <c r="N51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="7">
         <v>1213</v>
       </c>
-      <c r="P51" s="7"/>
-      <c r="R51" s="11" t="s">
+      <c r="P51" s="11"/>
+      <c r="R51" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S51" s="9">
         <v>1267</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="9" t="s">
         <v>194</v>
       </c>
       <c r="U51" s="9"/>
     </row>
     <row r="52" spans="2:21">
-      <c r="B52" s="19"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="4">
         <v>49</v>
       </c>
@@ -3269,20 +3396,20 @@
       <c r="F52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="M52" s="8">
+      <c r="G52" s="11"/>
+      <c r="M52" s="7">
         <v>49</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O52" s="8">
+      <c r="N52" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O52" s="7">
         <v>1215</v>
       </c>
-      <c r="P52" s="7"/>
+      <c r="P52" s="11"/>
     </row>
     <row r="53" spans="2:21">
-      <c r="B53" s="19"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="4">
         <v>50</v>
       </c>
@@ -3295,20 +3422,20 @@
       <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="M53" s="8">
+      <c r="G53" s="11"/>
+      <c r="M53" s="7">
         <v>50</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O53" s="8">
+      <c r="N53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" s="7">
         <v>1216</v>
       </c>
-      <c r="P53" s="7"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="2:21">
-      <c r="B54" s="19"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="4">
         <v>51</v>
       </c>
@@ -3321,20 +3448,20 @@
       <c r="F54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="M54" s="8">
+      <c r="G54" s="11"/>
+      <c r="M54" s="7">
         <v>51</v>
       </c>
-      <c r="N54" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O54" s="8">
+      <c r="N54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="7">
         <v>1217</v>
       </c>
-      <c r="P54" s="7"/>
+      <c r="P54" s="11"/>
     </row>
     <row r="55" spans="2:21">
-      <c r="B55" s="19"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="4">
         <v>52</v>
       </c>
@@ -3347,23 +3474,23 @@
       <c r="F55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="M55" s="8">
+      <c r="G55" s="11"/>
+      <c r="M55" s="7">
         <v>52</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O55" s="8">
+      <c r="N55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O55" s="7">
         <v>1220</v>
       </c>
-      <c r="P55" s="7"/>
-      <c r="R55" t="s">
+      <c r="P55" s="11"/>
+      <c r="R55" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="56" spans="2:21">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2">
@@ -3378,26 +3505,26 @@
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="M56" s="8">
+      <c r="G56" s="11"/>
+      <c r="M56" s="7">
         <v>53</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O56" s="8">
+      <c r="N56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O56" s="7">
         <v>1221</v>
       </c>
-      <c r="P56" s="7"/>
-      <c r="R56" t="s">
+      <c r="P56" s="11"/>
+      <c r="R56" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="B57" s="19"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="2">
         <v>54</v>
       </c>
@@ -3410,23 +3537,23 @@
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="M57" s="8">
+      <c r="G57" s="11"/>
+      <c r="M57" s="7">
         <v>54</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O57" s="8">
+      <c r="N57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="7">
         <v>1225</v>
       </c>
-      <c r="P57" s="7"/>
-      <c r="S57" t="s">
+      <c r="P57" s="11"/>
+      <c r="S57" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="19"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="2">
         <v>55</v>
       </c>
@@ -3439,23 +3566,23 @@
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="M58" s="8">
+      <c r="G58" s="11"/>
+      <c r="M58" s="7">
         <v>55</v>
       </c>
-      <c r="N58" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O58" s="8">
+      <c r="N58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O58" s="7">
         <v>1228</v>
       </c>
-      <c r="P58" s="7"/>
-      <c r="S58" t="s">
+      <c r="P58" s="11"/>
+      <c r="S58" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="19"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="4">
         <v>56</v>
       </c>
@@ -3468,23 +3595,23 @@
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="M59" s="8">
+      <c r="G59" s="11"/>
+      <c r="M59" s="7">
         <v>56</v>
       </c>
-      <c r="N59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O59" s="8">
+      <c r="N59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O59" s="7">
         <v>1229</v>
       </c>
-      <c r="P59" s="7"/>
-      <c r="S59" t="s">
+      <c r="P59" s="11"/>
+      <c r="S59" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="19"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="4">
         <v>57</v>
       </c>
@@ -3497,23 +3624,23 @@
       <c r="F60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="M60" s="8">
+      <c r="G60" s="11"/>
+      <c r="M60" s="7">
         <v>57</v>
       </c>
-      <c r="N60" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O60" s="8">
+      <c r="N60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O60" s="7">
         <v>1230</v>
       </c>
-      <c r="P60" s="7"/>
-      <c r="S60" t="s">
+      <c r="P60" s="11"/>
+      <c r="S60" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="19"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="4">
         <v>58</v>
       </c>
@@ -3526,26 +3653,26 @@
       <c r="F61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="M61" s="8">
+      <c r="G61" s="11"/>
+      <c r="M61" s="7">
         <v>58</v>
       </c>
-      <c r="N61" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O61" s="8">
+      <c r="N61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O61" s="7">
         <v>1234</v>
       </c>
-      <c r="P61" s="7"/>
-      <c r="R61" t="s">
+      <c r="P61" s="11"/>
+      <c r="R61" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S61" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="62" spans="2:21">
-      <c r="B62" s="19"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="4">
         <v>59</v>
       </c>
@@ -3558,23 +3685,23 @@
       <c r="F62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="M62" s="8">
+      <c r="G62" s="11"/>
+      <c r="M62" s="7">
         <v>59</v>
       </c>
-      <c r="N62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O62" s="8">
+      <c r="N62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O62" s="7">
         <v>1240</v>
       </c>
-      <c r="P62" s="7"/>
-      <c r="S62" t="s">
+      <c r="P62" s="11"/>
+      <c r="S62" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="19"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="4">
         <v>60</v>
       </c>
@@ -3587,23 +3714,23 @@
       <c r="F63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="M63" s="8">
+      <c r="G63" s="11"/>
+      <c r="M63" s="7">
         <v>60</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O63" s="8">
+      <c r="N63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O63" s="7">
         <v>1244</v>
       </c>
-      <c r="P63" s="7"/>
-      <c r="S63" t="s">
+      <c r="P63" s="11"/>
+      <c r="S63" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="64" spans="2:21">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="2">
@@ -3618,20 +3745,20 @@
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="M64" s="8">
+      <c r="G64" s="11"/>
+      <c r="M64" s="7">
         <v>61</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O64" s="8">
+      <c r="N64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O64" s="7">
         <v>1289</v>
       </c>
-      <c r="P64" s="7"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="2:16">
-      <c r="B65" s="19"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="2">
         <v>62</v>
       </c>
@@ -3644,20 +3771,20 @@
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="M65" s="8">
+      <c r="G65" s="11"/>
+      <c r="M65" s="7">
         <v>62</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O65" s="8">
+      <c r="N65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O65" s="7">
         <v>1491</v>
       </c>
-      <c r="P65" s="7"/>
+      <c r="P65" s="11"/>
     </row>
     <row r="66" spans="2:16">
-      <c r="B66" s="19"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="2">
         <v>63</v>
       </c>
@@ -3670,20 +3797,20 @@
       <c r="F66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="M66" s="8">
+      <c r="G66" s="11"/>
+      <c r="M66" s="7">
         <v>63</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O66" s="8">
+      <c r="N66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O66" s="7">
         <v>1493</v>
       </c>
-      <c r="P66" s="7"/>
+      <c r="P66" s="11"/>
     </row>
     <row r="67" spans="2:16">
-      <c r="B67" s="19"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="2">
         <v>64</v>
       </c>
@@ -3696,20 +3823,20 @@
       <c r="F67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="M67" s="8">
+      <c r="G67" s="11"/>
+      <c r="M67" s="7">
         <v>64</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O67" s="8">
+      <c r="N67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O67" s="7">
         <v>1860</v>
       </c>
-      <c r="P67" s="7"/>
+      <c r="P67" s="11"/>
     </row>
     <row r="68" spans="2:16">
-      <c r="B68" s="19"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="2">
         <v>65</v>
       </c>
@@ -3722,20 +3849,20 @@
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="M68" s="8">
+      <c r="G68" s="11"/>
+      <c r="M68" s="7">
         <v>65</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O68" s="8">
+      <c r="N68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O68" s="7">
         <v>1873</v>
       </c>
-      <c r="P68" s="7"/>
+      <c r="P68" s="11"/>
     </row>
     <row r="69" spans="2:16">
-      <c r="B69" s="19"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="4">
         <v>66</v>
       </c>
@@ -3748,20 +3875,20 @@
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="M69" s="8">
+      <c r="G69" s="11"/>
+      <c r="M69" s="7">
         <v>66</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O69" s="8">
+      <c r="N69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O69" s="7">
         <v>2805</v>
       </c>
-      <c r="P69" s="7"/>
+      <c r="P69" s="11"/>
     </row>
     <row r="70" spans="2:16">
-      <c r="B70" s="19"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="4">
         <v>67</v>
       </c>
@@ -3774,20 +3901,20 @@
       <c r="F70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="M70" s="8">
+      <c r="G70" s="11"/>
+      <c r="M70" s="7">
         <v>67</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O70" s="8">
+      <c r="N70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O70" s="7">
         <v>2806</v>
       </c>
-      <c r="P70" s="7"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="2:16">
-      <c r="B71" s="19"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="4">
         <v>68</v>
       </c>
@@ -3800,20 +3927,20 @@
       <c r="F71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="M71" s="8">
+      <c r="G71" s="11"/>
+      <c r="M71" s="7">
         <v>68</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O71" s="8">
+      <c r="N71" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O71" s="7">
         <v>2814</v>
       </c>
-      <c r="P71" s="7"/>
+      <c r="P71" s="11"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="2">
@@ -3828,20 +3955,20 @@
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="M72" s="8">
+      <c r="G72" s="11"/>
+      <c r="M72" s="7">
         <v>69</v>
       </c>
-      <c r="N72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O72" s="8">
+      <c r="N72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O72" s="7">
         <v>2817</v>
       </c>
-      <c r="P72" s="7"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="2:16">
-      <c r="B73" s="19"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="2">
         <v>70</v>
       </c>
@@ -3854,20 +3981,20 @@
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="M73" s="8">
+      <c r="G73" s="11"/>
+      <c r="M73" s="7">
         <v>70</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O73" s="8">
+      <c r="N73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O73" s="7">
         <v>2930</v>
       </c>
-      <c r="P73" s="7"/>
+      <c r="P73" s="11"/>
     </row>
     <row r="74" spans="2:16">
-      <c r="B74" s="19"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="2">
         <v>71</v>
       </c>
@@ -3880,20 +4007,20 @@
       <c r="F74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="M74" s="8">
+      <c r="G74" s="11"/>
+      <c r="M74" s="7">
         <v>71</v>
       </c>
-      <c r="N74" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O74" s="8">
+      <c r="N74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O74" s="7">
         <v>2948</v>
       </c>
-      <c r="P74" s="7"/>
+      <c r="P74" s="11"/>
     </row>
     <row r="75" spans="2:16">
-      <c r="B75" s="19"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="2">
         <v>72</v>
       </c>
@@ -3906,20 +4033,20 @@
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="M75" s="8">
+      <c r="G75" s="11"/>
+      <c r="M75" s="7">
         <v>72</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O75" s="8">
+      <c r="N75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O75" s="7">
         <v>3032</v>
       </c>
-      <c r="P75" s="7"/>
+      <c r="P75" s="11"/>
     </row>
     <row r="76" spans="2:16">
-      <c r="B76" s="19"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="4">
         <v>73</v>
       </c>
@@ -3932,20 +4059,20 @@
       <c r="F76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="M76" s="8">
+      <c r="G76" s="11"/>
+      <c r="M76" s="7">
         <v>73</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O76" s="8">
+      <c r="N76" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O76" s="7">
         <v>3131</v>
       </c>
-      <c r="P76" s="7"/>
+      <c r="P76" s="11"/>
     </row>
     <row r="77" spans="2:16">
-      <c r="B77" s="19"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="4">
         <v>74</v>
       </c>
@@ -3958,20 +4085,20 @@
       <c r="F77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="M77" s="8">
+      <c r="G77" s="11"/>
+      <c r="M77" s="7">
         <v>74</v>
       </c>
-      <c r="N77" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O77" s="8">
+      <c r="N77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O77" s="7">
         <v>3142</v>
       </c>
-      <c r="P77" s="7"/>
+      <c r="P77" s="11"/>
     </row>
     <row r="78" spans="2:16">
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="2">
@@ -3986,20 +4113,20 @@
       <c r="F78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="M78" s="8">
+      <c r="G78" s="11"/>
+      <c r="M78" s="7">
         <v>75</v>
       </c>
-      <c r="N78" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O78" s="8">
+      <c r="N78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O78" s="7">
         <v>3233</v>
       </c>
-      <c r="P78" s="7"/>
+      <c r="P78" s="11"/>
     </row>
     <row r="79" spans="2:16">
-      <c r="B79" s="19"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="2">
         <v>76</v>
       </c>
@@ -4012,20 +4139,20 @@
       <c r="F79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="M79" s="8">
+      <c r="G79" s="11"/>
+      <c r="M79" s="7">
         <v>76</v>
       </c>
-      <c r="N79" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O79" s="8">
+      <c r="N79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O79" s="7">
         <v>3260</v>
       </c>
-      <c r="P79" s="7"/>
+      <c r="P79" s="11"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="19"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="2">
         <v>77</v>
       </c>
@@ -4038,20 +4165,20 @@
       <c r="F80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="M80" s="8">
+      <c r="G80" s="11"/>
+      <c r="M80" s="7">
         <v>77</v>
       </c>
-      <c r="N80" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O80" s="8">
+      <c r="N80" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O80" s="7">
         <v>3282</v>
       </c>
-      <c r="P80" s="7"/>
+      <c r="P80" s="11"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="19"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="2">
         <v>78</v>
       </c>
@@ -4064,20 +4191,20 @@
       <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="M81" s="8">
+      <c r="G81" s="11"/>
+      <c r="M81" s="7">
         <v>78</v>
       </c>
-      <c r="N81" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O81" s="8">
+      <c r="N81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O81" s="7">
         <v>3304</v>
       </c>
-      <c r="P81" s="7"/>
+      <c r="P81" s="11"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="19"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="4">
         <v>79</v>
       </c>
@@ -4090,20 +4217,20 @@
       <c r="F82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="M82" s="8">
+      <c r="G82" s="11"/>
+      <c r="M82" s="7">
         <v>79</v>
       </c>
-      <c r="N82" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O82" s="8">
+      <c r="N82" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O82" s="7">
         <v>3307</v>
       </c>
-      <c r="P82" s="7"/>
+      <c r="P82" s="11"/>
     </row>
     <row r="83" spans="2:16">
-      <c r="B83" s="19"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="4">
         <v>80</v>
       </c>
@@ -4116,20 +4243,20 @@
       <c r="F83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="M83" s="8">
+      <c r="G83" s="11"/>
+      <c r="M83" s="7">
         <v>80</v>
       </c>
-      <c r="N83" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O83" s="8">
+      <c r="N83" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O83" s="7">
         <v>3314</v>
       </c>
-      <c r="P83" s="7"/>
+      <c r="P83" s="11"/>
     </row>
     <row r="84" spans="2:16">
-      <c r="B84" s="19"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="4">
         <v>81</v>
       </c>
@@ -4142,20 +4269,20 @@
       <c r="F84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="M84" s="8">
+      <c r="G84" s="11"/>
+      <c r="M84" s="7">
         <v>81</v>
       </c>
-      <c r="N84" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O84" s="8">
+      <c r="N84" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O84" s="7">
         <v>3376</v>
       </c>
-      <c r="P84" s="7"/>
+      <c r="P84" s="11"/>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="19"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="4">
         <v>82</v>
       </c>
@@ -4168,20 +4295,20 @@
       <c r="F85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="M85" s="8">
+      <c r="G85" s="11"/>
+      <c r="M85" s="7">
         <v>82</v>
       </c>
-      <c r="N85" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O85" s="8">
+      <c r="N85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O85" s="7">
         <v>3408</v>
       </c>
-      <c r="P85" s="7"/>
+      <c r="P85" s="11"/>
     </row>
     <row r="86" spans="2:16">
-      <c r="B86" s="19"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="4">
         <v>83</v>
       </c>
@@ -4194,20 +4321,20 @@
       <c r="F86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="M86" s="8">
+      <c r="G86" s="11"/>
+      <c r="M86" s="7">
         <v>83</v>
       </c>
-      <c r="N86" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O86" s="8">
+      <c r="N86" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O86" s="7">
         <v>3431</v>
       </c>
-      <c r="P86" s="7"/>
+      <c r="P86" s="11"/>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="19"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="4">
         <v>84</v>
       </c>
@@ -4220,20 +4347,20 @@
       <c r="F87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="M87" s="8">
+      <c r="G87" s="11"/>
+      <c r="M87" s="7">
         <v>84</v>
       </c>
-      <c r="N87" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O87" s="8">
+      <c r="N87" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O87" s="7">
         <v>3456</v>
       </c>
-      <c r="P87" s="7"/>
+      <c r="P87" s="11"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4">
@@ -4248,20 +4375,20 @@
       <c r="F88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="M88" s="8">
+      <c r="G88" s="11"/>
+      <c r="M88" s="7">
         <v>85</v>
       </c>
-      <c r="N88" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O88" s="8">
+      <c r="N88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O88" s="7">
         <v>3499</v>
       </c>
-      <c r="P88" s="7"/>
+      <c r="P88" s="11"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="19"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="4">
         <v>86</v>
       </c>
@@ -4274,20 +4401,20 @@
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="M89" s="8">
+      <c r="G89" s="11"/>
+      <c r="M89" s="7">
         <v>86</v>
       </c>
-      <c r="N89" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O89" s="8">
+      <c r="N89" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O89" s="7">
         <v>3750</v>
       </c>
-      <c r="P89" s="7"/>
+      <c r="P89" s="11"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="19"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="4">
         <v>87</v>
       </c>
@@ -4300,20 +4427,20 @@
       <c r="F90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="M90" s="8">
+      <c r="G90" s="11"/>
+      <c r="M90" s="7">
         <v>87</v>
       </c>
-      <c r="N90" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O90" s="8">
+      <c r="N90" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O90" s="7">
         <v>3809</v>
       </c>
-      <c r="P90" s="7"/>
+      <c r="P90" s="11"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="19"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="4">
         <v>88</v>
       </c>
@@ -4326,20 +4453,20 @@
       <c r="F91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="M91" s="8">
+      <c r="G91" s="11"/>
+      <c r="M91" s="7">
         <v>88</v>
       </c>
-      <c r="N91" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O91" s="8">
+      <c r="N91" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O91" s="7">
         <v>3975</v>
       </c>
-      <c r="P91" s="7"/>
+      <c r="P91" s="11"/>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="19"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="4">
         <v>89</v>
       </c>
@@ -4352,20 +4479,20 @@
       <c r="F92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="M92" s="8">
+      <c r="G92" s="11"/>
+      <c r="M92" s="7">
         <v>89</v>
       </c>
-      <c r="N92" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O92" s="8">
+      <c r="N92" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O92" s="7">
         <v>4047</v>
       </c>
-      <c r="P92" s="7"/>
+      <c r="P92" s="11"/>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="19"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="2">
         <v>90</v>
       </c>
@@ -4378,20 +4505,20 @@
       <c r="F93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="M93" s="8">
+      <c r="G93" s="11"/>
+      <c r="M93" s="7">
         <v>90</v>
       </c>
-      <c r="N93" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O93" s="8">
+      <c r="N93" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O93" s="7">
         <v>4299</v>
       </c>
-      <c r="P93" s="7"/>
+      <c r="P93" s="11"/>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="19"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="2">
         <v>91</v>
       </c>
@@ -4404,20 +4531,20 @@
       <c r="F94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="M94" s="8">
+      <c r="G94" s="11"/>
+      <c r="M94" s="7">
         <v>91</v>
       </c>
-      <c r="N94" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O94" s="8">
+      <c r="N94" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O94" s="7">
         <v>4371</v>
       </c>
-      <c r="P94" s="7"/>
+      <c r="P94" s="11"/>
     </row>
     <row r="95" spans="2:16">
-      <c r="B95" s="19"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="2">
         <v>92</v>
       </c>
@@ -4430,20 +4557,20 @@
       <c r="F95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="M95" s="8">
+      <c r="G95" s="11"/>
+      <c r="M95" s="7">
         <v>92</v>
       </c>
-      <c r="N95" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O95" s="8">
+      <c r="N95" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O95" s="7">
         <v>4406</v>
       </c>
-      <c r="P95" s="7"/>
+      <c r="P95" s="11"/>
     </row>
     <row r="96" spans="2:16">
-      <c r="B96" s="19"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="2">
         <v>93</v>
       </c>
@@ -4456,20 +4583,20 @@
       <c r="F96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="M96" s="8">
+      <c r="G96" s="11"/>
+      <c r="M96" s="7">
         <v>93</v>
       </c>
-      <c r="N96" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O96" s="8">
+      <c r="N96" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O96" s="7">
         <v>4466</v>
       </c>
-      <c r="P96" s="7"/>
+      <c r="P96" s="11"/>
     </row>
     <row r="97" spans="2:16">
-      <c r="B97" s="19"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="2">
         <v>94</v>
       </c>
@@ -4482,20 +4609,20 @@
       <c r="F97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="M97" s="8">
+      <c r="G97" s="11"/>
+      <c r="M97" s="7">
         <v>94</v>
       </c>
-      <c r="N97" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O97" s="8">
+      <c r="N97" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O97" s="7">
         <v>4522</v>
       </c>
-      <c r="P97" s="7"/>
+      <c r="P97" s="11"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="19"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="2">
         <v>95</v>
       </c>
@@ -4508,20 +4635,20 @@
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="13"/>
-      <c r="M98" s="8">
+      <c r="G98" s="11"/>
+      <c r="M98" s="7">
         <v>95</v>
       </c>
-      <c r="N98" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O98" s="8">
+      <c r="N98" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O98" s="7">
         <v>4579</v>
       </c>
-      <c r="P98" s="7"/>
+      <c r="P98" s="11"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C99" s="4">
@@ -4536,20 +4663,20 @@
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="M99" s="8">
+      <c r="G99" s="11"/>
+      <c r="M99" s="7">
         <v>96</v>
       </c>
-      <c r="N99" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O99" s="8">
+      <c r="N99" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O99" s="7">
         <v>4615</v>
       </c>
-      <c r="P99" s="7"/>
+      <c r="P99" s="11"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="19"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="4">
         <v>97</v>
       </c>
@@ -4562,20 +4689,20 @@
       <c r="F100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="M100" s="8">
+      <c r="G100" s="11"/>
+      <c r="M100" s="7">
         <v>97</v>
       </c>
-      <c r="N100" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O100" s="8">
+      <c r="N100" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O100" s="7">
         <v>4676</v>
       </c>
-      <c r="P100" s="7"/>
+      <c r="P100" s="11"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="19"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="4">
         <v>98</v>
       </c>
@@ -4588,20 +4715,20 @@
       <c r="F101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="M101" s="8">
+      <c r="G101" s="11"/>
+      <c r="M101" s="7">
         <v>98</v>
       </c>
-      <c r="N101" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O101" s="8">
+      <c r="N101" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O101" s="7">
         <v>4698</v>
       </c>
-      <c r="P101" s="7"/>
+      <c r="P101" s="11"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="19"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="4">
         <v>99</v>
       </c>
@@ -4614,20 +4741,20 @@
       <c r="F102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="M102" s="8">
+      <c r="G102" s="11"/>
+      <c r="M102" s="7">
         <v>99</v>
       </c>
-      <c r="N102" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O102" s="8">
+      <c r="N102" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O102" s="7">
         <v>4751</v>
       </c>
-      <c r="P102" s="7"/>
+      <c r="P102" s="11"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="19"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="4">
         <v>100</v>
       </c>
@@ -4640,20 +4767,20 @@
       <c r="F103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="M103" s="8">
+      <c r="G103" s="11"/>
+      <c r="M103" s="7">
         <v>100</v>
       </c>
-      <c r="N103" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O103" s="8">
+      <c r="N103" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O103" s="7">
         <v>4789</v>
       </c>
-      <c r="P103" s="7"/>
+      <c r="P103" s="11"/>
     </row>
     <row r="104" spans="2:16">
-      <c r="B104" s="19"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="2">
         <v>101</v>
       </c>
@@ -4666,20 +4793,20 @@
       <c r="F104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="M104" s="8">
+      <c r="G104" s="11"/>
+      <c r="M104" s="7">
         <v>101</v>
       </c>
-      <c r="N104" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O104" s="8">
+      <c r="N104" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O104" s="7">
         <v>5162</v>
       </c>
-      <c r="P104" s="7"/>
+      <c r="P104" s="11"/>
     </row>
     <row r="105" spans="2:16">
-      <c r="B105" s="19"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="2">
         <v>102</v>
       </c>
@@ -4692,20 +4819,20 @@
       <c r="F105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="M105" s="8">
+      <c r="G105" s="11"/>
+      <c r="M105" s="7">
         <v>102</v>
       </c>
-      <c r="N105" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O105" s="8">
+      <c r="N105" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O105" s="7">
         <v>5215</v>
       </c>
-      <c r="P105" s="7"/>
+      <c r="P105" s="11"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="19"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="2">
         <v>103</v>
       </c>
@@ -4718,20 +4845,20 @@
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="M106" s="8">
+      <c r="G106" s="11"/>
+      <c r="M106" s="7">
         <v>103</v>
       </c>
-      <c r="N106" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O106" s="8">
+      <c r="N106" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O106" s="7">
         <v>5293</v>
       </c>
-      <c r="P106" s="7"/>
+      <c r="P106" s="11"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="19"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="2">
         <v>104</v>
       </c>
@@ -4744,20 +4871,20 @@
       <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="M107" s="8">
+      <c r="G107" s="11"/>
+      <c r="M107" s="7">
         <v>104</v>
       </c>
-      <c r="N107" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O107" s="8">
+      <c r="N107" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O107" s="7">
         <v>5356</v>
       </c>
-      <c r="P107" s="7"/>
+      <c r="P107" s="11"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C108" s="4">
@@ -4772,20 +4899,20 @@
       <c r="F108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="M108" s="8">
+      <c r="G108" s="11"/>
+      <c r="M108" s="7">
         <v>105</v>
       </c>
-      <c r="N108" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O108" s="8">
+      <c r="N108" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O108" s="7">
         <v>5431</v>
       </c>
-      <c r="P108" s="7"/>
+      <c r="P108" s="11"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="19"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="4">
         <v>106</v>
       </c>
@@ -4798,20 +4925,20 @@
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="M109" s="8">
+      <c r="G109" s="11"/>
+      <c r="M109" s="7">
         <v>106</v>
       </c>
-      <c r="N109" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O109" s="8">
+      <c r="N109" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O109" s="7">
         <v>5515</v>
       </c>
-      <c r="P109" s="7"/>
+      <c r="P109" s="11"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="19"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="4">
         <v>107</v>
       </c>
@@ -4824,20 +4951,20 @@
       <c r="F110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="M110" s="8">
+      <c r="G110" s="11"/>
+      <c r="M110" s="7">
         <v>107</v>
       </c>
-      <c r="N110" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O110" s="8">
+      <c r="N110" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O110" s="7">
         <v>5549</v>
       </c>
-      <c r="P110" s="7"/>
+      <c r="P110" s="11"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="19"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="4">
         <v>108</v>
       </c>
@@ -4850,20 +4977,20 @@
       <c r="F111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="M111" s="8">
+      <c r="G111" s="11"/>
+      <c r="M111" s="7">
         <v>108</v>
       </c>
-      <c r="N111" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O111" s="8">
+      <c r="N111" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O111" s="7">
         <v>5601</v>
       </c>
-      <c r="P111" s="7"/>
+      <c r="P111" s="11"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="19"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="4">
         <v>109</v>
       </c>
@@ -4876,20 +5003,20 @@
       <c r="F112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="13"/>
-      <c r="M112" s="8">
+      <c r="G112" s="11"/>
+      <c r="M112" s="7">
         <v>109</v>
       </c>
-      <c r="N112" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O112" s="8">
+      <c r="N112" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O112" s="7">
         <v>5603</v>
       </c>
-      <c r="P112" s="7"/>
+      <c r="P112" s="11"/>
     </row>
     <row r="113" spans="2:16">
-      <c r="B113" s="19"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="2">
         <v>110</v>
       </c>
@@ -4902,20 +5029,20 @@
       <c r="F113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="13"/>
-      <c r="M113" s="8">
+      <c r="G113" s="11"/>
+      <c r="M113" s="7">
         <v>110</v>
       </c>
-      <c r="N113" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O113" s="8">
+      <c r="N113" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O113" s="7">
         <v>5607</v>
       </c>
-      <c r="P113" s="7"/>
+      <c r="P113" s="11"/>
     </row>
     <row r="114" spans="2:16">
-      <c r="B114" s="19"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="2">
         <v>111</v>
       </c>
@@ -4928,20 +5055,20 @@
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="13"/>
-      <c r="M114" s="8">
+      <c r="G114" s="11"/>
+      <c r="M114" s="7">
         <v>111</v>
       </c>
-      <c r="N114" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O114" s="8">
+      <c r="N114" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O114" s="7">
         <v>5642</v>
       </c>
-      <c r="P114" s="7"/>
+      <c r="P114" s="11"/>
     </row>
     <row r="115" spans="2:16">
-      <c r="B115" s="19"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="2">
         <v>112</v>
       </c>
@@ -4954,20 +5081,20 @@
       <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="M115" s="8">
+      <c r="G115" s="11"/>
+      <c r="M115" s="7">
         <v>112</v>
       </c>
-      <c r="N115" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O115" s="8">
+      <c r="N115" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O115" s="7">
         <v>5688</v>
       </c>
-      <c r="P115" s="7"/>
+      <c r="P115" s="11"/>
     </row>
     <row r="116" spans="2:16">
-      <c r="B116" s="19"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="2">
         <v>113</v>
       </c>
@@ -4980,20 +5107,20 @@
       <c r="F116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="M116" s="8">
+      <c r="G116" s="11"/>
+      <c r="M116" s="7">
         <v>113</v>
       </c>
-      <c r="N116" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O116" s="8">
+      <c r="N116" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O116" s="7">
         <v>5789</v>
       </c>
-      <c r="P116" s="7"/>
+      <c r="P116" s="11"/>
     </row>
     <row r="117" spans="2:16">
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="4">
@@ -5008,20 +5135,20 @@
       <c r="F117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="M117" s="8">
+      <c r="G117" s="11"/>
+      <c r="M117" s="7">
         <v>114</v>
       </c>
-      <c r="N117" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O117" s="8">
+      <c r="N117" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O117" s="7">
         <v>5948</v>
       </c>
-      <c r="P117" s="7"/>
+      <c r="P117" s="11"/>
     </row>
     <row r="118" spans="2:16">
-      <c r="B118" s="19"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="4">
         <v>115</v>
       </c>
@@ -5034,20 +5161,20 @@
       <c r="F118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="M118" s="8">
+      <c r="G118" s="11"/>
+      <c r="M118" s="7">
         <v>115</v>
       </c>
-      <c r="N118" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O118" s="8">
+      <c r="N118" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O118" s="7">
         <v>5986</v>
       </c>
-      <c r="P118" s="7"/>
+      <c r="P118" s="11"/>
     </row>
     <row r="119" spans="2:16">
-      <c r="B119" s="19"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="4">
         <v>116</v>
       </c>
@@ -5060,20 +5187,20 @@
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="M119" s="8">
+      <c r="G119" s="11"/>
+      <c r="M119" s="7">
         <v>116</v>
       </c>
-      <c r="N119" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O119" s="8">
+      <c r="N119" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O119" s="7">
         <v>6019</v>
       </c>
-      <c r="P119" s="7"/>
+      <c r="P119" s="11"/>
     </row>
     <row r="120" spans="2:16">
-      <c r="B120" s="19"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="4">
         <v>117</v>
       </c>
@@ -5086,20 +5213,20 @@
       <c r="F120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="M120" s="8">
+      <c r="G120" s="11"/>
+      <c r="M120" s="7">
         <v>117</v>
       </c>
-      <c r="N120" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O120" s="8">
+      <c r="N120" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O120" s="7">
         <v>6057</v>
       </c>
-      <c r="P120" s="7"/>
+      <c r="P120" s="11"/>
     </row>
     <row r="121" spans="2:16">
-      <c r="B121" s="19"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="4">
         <v>118</v>
       </c>
@@ -5112,20 +5239,20 @@
       <c r="F121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="M121" s="8">
+      <c r="G121" s="11"/>
+      <c r="M121" s="7">
         <v>118</v>
       </c>
-      <c r="N121" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O121" s="8">
+      <c r="N121" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O121" s="7">
         <v>6190</v>
       </c>
-      <c r="P121" s="7"/>
+      <c r="P121" s="11"/>
     </row>
     <row r="122" spans="2:16">
-      <c r="B122" s="19"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="4">
         <v>119</v>
       </c>
@@ -5138,20 +5265,20 @@
       <c r="F122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="M122" s="8">
+      <c r="G122" s="11"/>
+      <c r="M122" s="7">
         <v>119</v>
       </c>
-      <c r="N122" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O122" s="8">
+      <c r="N122" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O122" s="7">
         <v>6485</v>
       </c>
-      <c r="P122" s="7"/>
+      <c r="P122" s="11"/>
     </row>
     <row r="123" spans="2:16">
-      <c r="B123" s="19"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="2">
         <v>120</v>
       </c>
@@ -5164,20 +5291,20 @@
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="M123" s="8">
+      <c r="G123" s="11"/>
+      <c r="M123" s="7">
         <v>120</v>
       </c>
-      <c r="N123" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O123" s="8">
+      <c r="N123" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O123" s="7">
         <v>6692</v>
       </c>
-      <c r="P123" s="7"/>
+      <c r="P123" s="11"/>
     </row>
     <row r="124" spans="2:16">
-      <c r="B124" s="19"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="2">
         <v>121</v>
       </c>
@@ -5190,20 +5317,20 @@
       <c r="F124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="13"/>
-      <c r="M124" s="8">
+      <c r="G124" s="11"/>
+      <c r="M124" s="7">
         <v>121</v>
       </c>
-      <c r="N124" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O124" s="8">
+      <c r="N124" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O124" s="7">
         <v>7675</v>
       </c>
-      <c r="P124" s="7"/>
+      <c r="P124" s="11"/>
     </row>
     <row r="125" spans="2:16">
-      <c r="B125" s="19"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="2">
         <v>122</v>
       </c>
@@ -5216,20 +5343,20 @@
       <c r="F125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="13"/>
-      <c r="M125" s="8">
+      <c r="G125" s="11"/>
+      <c r="M125" s="7">
         <v>122</v>
       </c>
-      <c r="N125" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O125" s="8">
+      <c r="N125" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O125" s="7">
         <v>1210</v>
       </c>
-      <c r="P125" s="7"/>
+      <c r="P125" s="11"/>
     </row>
     <row r="126" spans="2:16">
-      <c r="B126" s="19"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="2">
         <v>123</v>
       </c>
@@ -5242,857 +5369,857 @@
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="13"/>
-      <c r="M126" s="8">
+      <c r="G126" s="11"/>
+      <c r="M126" s="7">
         <v>123</v>
       </c>
-      <c r="N126" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O126" s="8">
+      <c r="N126" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O126" s="7">
         <v>1211</v>
       </c>
-      <c r="P126" s="7"/>
+      <c r="P126" s="11"/>
     </row>
     <row r="127" spans="2:16">
-      <c r="M127" s="8">
+      <c r="M127" s="7">
         <v>124</v>
       </c>
-      <c r="N127" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O127" s="8">
+      <c r="N127" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O127" s="7">
         <v>1218</v>
       </c>
-      <c r="P127" s="7"/>
+      <c r="P127" s="11"/>
     </row>
     <row r="128" spans="2:16">
-      <c r="M128" s="8">
+      <c r="M128" s="7">
         <v>125</v>
       </c>
-      <c r="N128" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O128" s="8">
+      <c r="N128" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O128" s="7">
         <v>1219</v>
       </c>
-      <c r="P128" s="7"/>
+      <c r="P128" s="11"/>
     </row>
     <row r="129" spans="13:16">
-      <c r="M129" s="8">
+      <c r="M129" s="7">
         <v>126</v>
       </c>
-      <c r="N129" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O129" s="8">
+      <c r="N129" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O129" s="7">
         <v>1222</v>
       </c>
-      <c r="P129" s="7"/>
+      <c r="P129" s="11"/>
     </row>
     <row r="130" spans="13:16">
-      <c r="M130" s="8">
+      <c r="M130" s="7">
         <v>127</v>
       </c>
-      <c r="N130" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O130" s="8">
+      <c r="N130" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O130" s="7">
         <v>1223</v>
       </c>
-      <c r="P130" s="7"/>
+      <c r="P130" s="11"/>
     </row>
     <row r="131" spans="13:16">
-      <c r="M131" s="8">
+      <c r="M131" s="7">
         <v>128</v>
       </c>
-      <c r="N131" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O131" s="8">
+      <c r="N131" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O131" s="7">
         <v>1224</v>
       </c>
-      <c r="P131" s="7"/>
+      <c r="P131" s="11"/>
     </row>
     <row r="132" spans="13:16">
-      <c r="M132" s="8">
+      <c r="M132" s="7">
         <v>129</v>
       </c>
-      <c r="N132" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O132" s="8">
+      <c r="N132" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O132" s="7">
         <v>1226</v>
       </c>
-      <c r="P132" s="7"/>
+      <c r="P132" s="11"/>
     </row>
     <row r="133" spans="13:16">
-      <c r="M133" s="8">
+      <c r="M133" s="7">
         <v>130</v>
       </c>
-      <c r="N133" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O133" s="8">
+      <c r="N133" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O133" s="7">
         <v>1227</v>
       </c>
-      <c r="P133" s="7"/>
+      <c r="P133" s="11"/>
     </row>
     <row r="134" spans="13:16">
-      <c r="M134" s="8">
+      <c r="M134" s="7">
         <v>131</v>
       </c>
-      <c r="N134" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O134" s="8">
+      <c r="N134" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O134" s="7">
         <v>1231</v>
       </c>
-      <c r="P134" s="7"/>
+      <c r="P134" s="11"/>
     </row>
     <row r="135" spans="13:16">
-      <c r="M135" s="8">
+      <c r="M135" s="7">
         <v>132</v>
       </c>
-      <c r="N135" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O135" s="8">
+      <c r="N135" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O135" s="7">
         <v>1232</v>
       </c>
-      <c r="P135" s="7"/>
+      <c r="P135" s="11"/>
     </row>
     <row r="136" spans="13:16">
-      <c r="M136" s="8">
+      <c r="M136" s="7">
         <v>133</v>
       </c>
-      <c r="N136" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O136" s="8">
+      <c r="N136" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O136" s="7">
         <v>1233</v>
       </c>
-      <c r="P136" s="7"/>
+      <c r="P136" s="11"/>
     </row>
     <row r="137" spans="13:16">
-      <c r="M137" s="8">
+      <c r="M137" s="7">
         <v>134</v>
       </c>
-      <c r="N137" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O137" s="8">
+      <c r="N137" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O137" s="7">
         <v>1238</v>
       </c>
-      <c r="P137" s="7"/>
+      <c r="P137" s="11"/>
     </row>
     <row r="138" spans="13:16">
-      <c r="M138" s="8">
+      <c r="M138" s="7">
         <v>135</v>
       </c>
-      <c r="N138" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O138" s="8">
+      <c r="N138" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O138" s="7">
         <v>1249</v>
       </c>
-      <c r="P138" s="7"/>
+      <c r="P138" s="11"/>
     </row>
     <row r="139" spans="13:16">
-      <c r="M139" s="8">
+      <c r="M139" s="7">
         <v>136</v>
       </c>
-      <c r="N139" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O139" s="8">
+      <c r="N139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O139" s="7">
         <v>1251</v>
       </c>
-      <c r="P139" s="7"/>
+      <c r="P139" s="11"/>
     </row>
     <row r="140" spans="13:16">
-      <c r="M140" s="8">
+      <c r="M140" s="7">
         <v>137</v>
       </c>
-      <c r="N140" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O140" s="8">
+      <c r="N140" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O140" s="7">
         <v>1258</v>
       </c>
-      <c r="P140" s="7"/>
+      <c r="P140" s="11"/>
     </row>
     <row r="141" spans="13:16">
-      <c r="M141" s="8">
+      <c r="M141" s="7">
         <v>138</v>
       </c>
-      <c r="N141" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O141" s="8">
+      <c r="N141" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O141" s="7">
         <v>1486</v>
       </c>
-      <c r="P141" s="7"/>
+      <c r="P141" s="11"/>
     </row>
     <row r="142" spans="13:16">
-      <c r="M142" s="8">
+      <c r="M142" s="7">
         <v>139</v>
       </c>
-      <c r="N142" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O142" s="8">
+      <c r="N142" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O142" s="7">
         <v>1494</v>
       </c>
-      <c r="P142" s="7"/>
+      <c r="P142" s="11"/>
     </row>
     <row r="143" spans="13:16">
-      <c r="M143" s="8">
+      <c r="M143" s="7">
         <v>140</v>
       </c>
-      <c r="N143" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O143" s="8">
+      <c r="N143" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O143" s="7">
         <v>1803</v>
       </c>
-      <c r="P143" s="7"/>
+      <c r="P143" s="11"/>
     </row>
     <row r="144" spans="13:16">
-      <c r="M144" s="8">
+      <c r="M144" s="7">
         <v>141</v>
       </c>
-      <c r="N144" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O144" s="8">
+      <c r="N144" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O144" s="7">
         <v>1808</v>
       </c>
-      <c r="P144" s="7"/>
+      <c r="P144" s="11"/>
     </row>
     <row r="145" spans="13:16">
-      <c r="M145" s="8">
+      <c r="M145" s="7">
         <v>142</v>
       </c>
-      <c r="N145" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O145" s="8">
+      <c r="N145" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O145" s="7">
         <v>1824</v>
       </c>
-      <c r="P145" s="7"/>
+      <c r="P145" s="11"/>
     </row>
     <row r="146" spans="13:16">
-      <c r="M146" s="8">
+      <c r="M146" s="7">
         <v>143</v>
       </c>
-      <c r="N146" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O146" s="8">
+      <c r="N146" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O146" s="7">
         <v>1861</v>
       </c>
-      <c r="P146" s="7"/>
+      <c r="P146" s="11"/>
     </row>
     <row r="147" spans="13:16">
-      <c r="M147" s="8">
+      <c r="M147" s="7">
         <v>144</v>
       </c>
-      <c r="N147" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O147" s="8">
+      <c r="N147" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O147" s="7">
         <v>1865</v>
       </c>
-      <c r="P147" s="7"/>
+      <c r="P147" s="11"/>
     </row>
     <row r="148" spans="13:16">
-      <c r="M148" s="8">
+      <c r="M148" s="7">
         <v>145</v>
       </c>
-      <c r="N148" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O148" s="8">
+      <c r="N148" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O148" s="7">
         <v>1868</v>
       </c>
-      <c r="P148" s="7"/>
+      <c r="P148" s="11"/>
     </row>
     <row r="149" spans="13:16">
-      <c r="M149" s="8">
+      <c r="M149" s="7">
         <v>146</v>
       </c>
-      <c r="N149" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O149" s="8">
+      <c r="N149" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O149" s="7">
         <v>2819</v>
       </c>
-      <c r="P149" s="7"/>
+      <c r="P149" s="11"/>
     </row>
     <row r="150" spans="13:16">
-      <c r="M150" s="8">
+      <c r="M150" s="7">
         <v>147</v>
       </c>
-      <c r="N150" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O150" s="8">
+      <c r="N150" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O150" s="7">
         <v>2983</v>
       </c>
-      <c r="P150" s="7"/>
+      <c r="P150" s="11"/>
     </row>
     <row r="151" spans="13:16">
-      <c r="M151" s="8">
-        <v>148</v>
-      </c>
-      <c r="N151" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O151" s="8">
+      <c r="M151" s="7">
+        <v>148</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O151" s="7">
         <v>3000</v>
       </c>
-      <c r="P151" s="7"/>
+      <c r="P151" s="11"/>
     </row>
     <row r="152" spans="13:16">
-      <c r="M152" s="8">
-        <v>149</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O152" s="8">
+      <c r="M152" s="7">
+        <v>149</v>
+      </c>
+      <c r="N152" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O152" s="7">
         <v>3064</v>
       </c>
-      <c r="P152" s="7"/>
+      <c r="P152" s="11"/>
     </row>
     <row r="153" spans="13:16">
-      <c r="M153" s="8">
+      <c r="M153" s="7">
         <v>150</v>
       </c>
-      <c r="N153" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O153" s="8">
+      <c r="N153" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O153" s="7">
         <v>3074</v>
       </c>
-      <c r="P153" s="7"/>
+      <c r="P153" s="11"/>
     </row>
     <row r="154" spans="13:16">
-      <c r="M154" s="8">
+      <c r="M154" s="7">
         <v>151</v>
       </c>
-      <c r="N154" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O154" s="8">
+      <c r="N154" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O154" s="7">
         <v>3124</v>
       </c>
-      <c r="P154" s="7"/>
+      <c r="P154" s="11"/>
     </row>
     <row r="155" spans="13:16">
-      <c r="M155" s="8">
+      <c r="M155" s="7">
         <v>152</v>
       </c>
-      <c r="N155" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O155" s="8">
+      <c r="N155" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O155" s="7">
         <v>3143</v>
       </c>
-      <c r="P155" s="7"/>
+      <c r="P155" s="11"/>
     </row>
     <row r="156" spans="13:16">
-      <c r="M156" s="8">
+      <c r="M156" s="7">
         <v>153</v>
       </c>
-      <c r="N156" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O156" s="8">
+      <c r="N156" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O156" s="7">
         <v>3234</v>
       </c>
-      <c r="P156" s="7"/>
+      <c r="P156" s="11"/>
     </row>
     <row r="157" spans="13:16">
-      <c r="M157" s="8">
+      <c r="M157" s="7">
         <v>154</v>
       </c>
-      <c r="N157" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O157" s="8">
+      <c r="N157" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O157" s="7">
         <v>3263</v>
       </c>
-      <c r="P157" s="7"/>
+      <c r="P157" s="11"/>
     </row>
     <row r="158" spans="13:16">
-      <c r="M158" s="8">
+      <c r="M158" s="7">
         <v>155</v>
       </c>
-      <c r="N158" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O158" s="8">
+      <c r="N158" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O158" s="7">
         <v>3289</v>
       </c>
-      <c r="P158" s="7"/>
+      <c r="P158" s="11"/>
     </row>
     <row r="159" spans="13:16">
-      <c r="M159" s="8">
+      <c r="M159" s="7">
         <v>156</v>
       </c>
-      <c r="N159" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O159" s="8">
+      <c r="N159" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O159" s="7">
         <v>3316</v>
       </c>
-      <c r="P159" s="7"/>
+      <c r="P159" s="11"/>
     </row>
     <row r="160" spans="13:16">
-      <c r="M160" s="8">
+      <c r="M160" s="7">
         <v>157</v>
       </c>
-      <c r="N160" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O160" s="8">
+      <c r="N160" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O160" s="7">
         <v>3347</v>
       </c>
-      <c r="P160" s="7"/>
+      <c r="P160" s="11"/>
     </row>
     <row r="161" spans="13:16">
-      <c r="M161" s="8">
+      <c r="M161" s="7">
         <v>158</v>
       </c>
-      <c r="N161" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O161" s="8">
+      <c r="N161" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O161" s="7">
         <v>3349</v>
       </c>
-      <c r="P161" s="7"/>
+      <c r="P161" s="11"/>
     </row>
     <row r="162" spans="13:16">
-      <c r="M162" s="8">
+      <c r="M162" s="7">
         <v>159</v>
       </c>
-      <c r="N162" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O162" s="8">
+      <c r="N162" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O162" s="7">
         <v>3378</v>
       </c>
-      <c r="P162" s="7"/>
+      <c r="P162" s="11"/>
     </row>
     <row r="163" spans="13:16">
-      <c r="M163" s="8">
+      <c r="M163" s="7">
         <v>160</v>
       </c>
-      <c r="N163" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O163" s="8">
+      <c r="N163" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O163" s="7">
         <v>3459</v>
       </c>
-      <c r="P163" s="7"/>
+      <c r="P163" s="11"/>
     </row>
     <row r="164" spans="13:16">
-      <c r="M164" s="8">
+      <c r="M164" s="7">
         <v>161</v>
       </c>
-      <c r="N164" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O164" s="8">
+      <c r="N164" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O164" s="7">
         <v>3501</v>
       </c>
-      <c r="P164" s="7"/>
+      <c r="P164" s="11"/>
     </row>
     <row r="165" spans="13:16">
-      <c r="M165" s="8">
+      <c r="M165" s="7">
         <v>162</v>
       </c>
-      <c r="N165" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O165" s="8">
+      <c r="N165" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O165" s="7">
         <v>3752</v>
       </c>
-      <c r="P165" s="7"/>
+      <c r="P165" s="11"/>
     </row>
     <row r="166" spans="13:16">
-      <c r="M166" s="8">
+      <c r="M166" s="7">
         <v>163</v>
       </c>
-      <c r="N166" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O166" s="8">
+      <c r="N166" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O166" s="7">
         <v>3812</v>
       </c>
-      <c r="P166" s="7"/>
+      <c r="P166" s="11"/>
     </row>
     <row r="167" spans="13:16">
-      <c r="M167" s="8">
+      <c r="M167" s="7">
         <v>164</v>
       </c>
-      <c r="N167" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O167" s="8">
+      <c r="N167" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O167" s="7">
         <v>4050</v>
       </c>
-      <c r="P167" s="7"/>
+      <c r="P167" s="11"/>
     </row>
     <row r="168" spans="13:16">
-      <c r="M168" s="8">
+      <c r="M168" s="7">
         <v>165</v>
       </c>
-      <c r="N168" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O168" s="8">
+      <c r="N168" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O168" s="7">
         <v>4111</v>
       </c>
-      <c r="P168" s="7"/>
+      <c r="P168" s="11"/>
     </row>
     <row r="169" spans="13:16">
-      <c r="M169" s="8">
+      <c r="M169" s="7">
         <v>166</v>
       </c>
-      <c r="N169" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O169" s="8">
+      <c r="N169" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O169" s="7">
         <v>4259</v>
       </c>
-      <c r="P169" s="7"/>
+      <c r="P169" s="11"/>
     </row>
     <row r="170" spans="13:16">
-      <c r="M170" s="8">
+      <c r="M170" s="7">
         <v>167</v>
       </c>
-      <c r="N170" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O170" s="8">
+      <c r="N170" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O170" s="7">
         <v>4261</v>
       </c>
-      <c r="P170" s="7"/>
+      <c r="P170" s="11"/>
     </row>
     <row r="171" spans="13:16">
-      <c r="M171" s="8">
+      <c r="M171" s="7">
         <v>168</v>
       </c>
-      <c r="N171" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O171" s="8">
+      <c r="N171" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O171" s="7">
         <v>4301</v>
       </c>
-      <c r="P171" s="7"/>
+      <c r="P171" s="11"/>
     </row>
     <row r="172" spans="13:16">
-      <c r="M172" s="8">
+      <c r="M172" s="7">
         <v>169</v>
       </c>
-      <c r="N172" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O172" s="8">
+      <c r="N172" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O172" s="7">
         <v>4366</v>
       </c>
-      <c r="P172" s="7"/>
+      <c r="P172" s="11"/>
     </row>
     <row r="173" spans="13:16">
-      <c r="M173" s="8">
+      <c r="M173" s="7">
         <v>170</v>
       </c>
-      <c r="N173" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O173" s="8">
+      <c r="N173" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O173" s="7">
         <v>4408</v>
       </c>
-      <c r="P173" s="7"/>
+      <c r="P173" s="11"/>
     </row>
     <row r="174" spans="13:16">
-      <c r="M174" s="8">
+      <c r="M174" s="7">
         <v>171</v>
       </c>
-      <c r="N174" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O174" s="8">
+      <c r="N174" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O174" s="7">
         <v>4530</v>
       </c>
-      <c r="P174" s="7"/>
+      <c r="P174" s="11"/>
     </row>
     <row r="175" spans="13:16">
-      <c r="M175" s="8">
+      <c r="M175" s="7">
         <v>172</v>
       </c>
-      <c r="N175" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O175" s="8">
+      <c r="N175" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O175" s="7">
         <v>4613</v>
       </c>
-      <c r="P175" s="7"/>
+      <c r="P175" s="11"/>
     </row>
     <row r="176" spans="13:16">
-      <c r="M176" s="8">
+      <c r="M176" s="7">
         <v>173</v>
       </c>
-      <c r="N176" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O176" s="8">
+      <c r="N176" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O176" s="7">
         <v>4672</v>
       </c>
-      <c r="P176" s="7"/>
+      <c r="P176" s="11"/>
     </row>
     <row r="177" spans="13:16">
-      <c r="M177" s="8">
+      <c r="M177" s="7">
         <v>174</v>
       </c>
-      <c r="N177" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O177" s="8">
+      <c r="N177" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O177" s="7">
         <v>4699</v>
       </c>
-      <c r="P177" s="7"/>
+      <c r="P177" s="11"/>
     </row>
     <row r="178" spans="13:16">
-      <c r="M178" s="8">
+      <c r="M178" s="7">
         <v>175</v>
       </c>
-      <c r="N178" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O178" s="8">
+      <c r="N178" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O178" s="7">
         <v>5213</v>
       </c>
-      <c r="P178" s="7"/>
+      <c r="P178" s="11"/>
     </row>
     <row r="179" spans="13:16">
-      <c r="M179" s="8">
+      <c r="M179" s="7">
         <v>176</v>
       </c>
-      <c r="N179" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O179" s="8">
+      <c r="N179" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O179" s="7">
         <v>5432</v>
       </c>
-      <c r="P179" s="7"/>
+      <c r="P179" s="11"/>
     </row>
     <row r="180" spans="13:16">
-      <c r="M180" s="8">
+      <c r="M180" s="7">
         <v>177</v>
       </c>
-      <c r="N180" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O180" s="8">
+      <c r="N180" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O180" s="7">
         <v>5550</v>
       </c>
-      <c r="P180" s="7"/>
+      <c r="P180" s="11"/>
     </row>
     <row r="181" spans="13:16">
-      <c r="M181" s="8">
+      <c r="M181" s="7">
         <v>178</v>
       </c>
-      <c r="N181" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O181" s="8">
+      <c r="N181" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O181" s="7">
         <v>5604</v>
       </c>
-      <c r="P181" s="7"/>
+      <c r="P181" s="11"/>
     </row>
     <row r="182" spans="13:16">
-      <c r="M182" s="8">
+      <c r="M182" s="7">
         <v>179</v>
       </c>
-      <c r="N182" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O182" s="8">
+      <c r="N182" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O182" s="7">
         <v>5606</v>
       </c>
-      <c r="P182" s="7"/>
+      <c r="P182" s="11"/>
     </row>
     <row r="183" spans="13:16">
-      <c r="M183" s="8">
+      <c r="M183" s="7">
         <v>180</v>
       </c>
-      <c r="N183" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O183" s="8">
+      <c r="N183" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O183" s="7">
         <v>5608</v>
       </c>
-      <c r="P183" s="7"/>
+      <c r="P183" s="11"/>
     </row>
     <row r="184" spans="13:16">
-      <c r="M184" s="8">
+      <c r="M184" s="7">
         <v>181</v>
       </c>
-      <c r="N184" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O184" s="8">
+      <c r="N184" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O184" s="7">
         <v>5640</v>
       </c>
-      <c r="P184" s="7"/>
+      <c r="P184" s="11"/>
     </row>
     <row r="185" spans="13:16">
-      <c r="M185" s="8">
+      <c r="M185" s="7">
         <v>182</v>
       </c>
-      <c r="N185" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O185" s="8">
+      <c r="N185" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O185" s="7">
         <v>5643</v>
       </c>
-      <c r="P185" s="7"/>
+      <c r="P185" s="11"/>
     </row>
     <row r="186" spans="13:16">
-      <c r="M186" s="8">
+      <c r="M186" s="7">
         <v>183</v>
       </c>
-      <c r="N186" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O186" s="8">
+      <c r="N186" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O186" s="7">
         <v>5671</v>
       </c>
-      <c r="P186" s="7"/>
+      <c r="P186" s="11"/>
     </row>
     <row r="187" spans="13:16">
-      <c r="M187" s="8">
+      <c r="M187" s="7">
         <v>184</v>
       </c>
-      <c r="N187" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O187" s="8">
+      <c r="N187" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O187" s="7">
         <v>5672</v>
       </c>
-      <c r="P187" s="7"/>
+      <c r="P187" s="11"/>
     </row>
     <row r="188" spans="13:16">
-      <c r="M188" s="8">
+      <c r="M188" s="7">
         <v>185</v>
       </c>
-      <c r="N188" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O188" s="8">
+      <c r="N188" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O188" s="7">
         <v>5676</v>
       </c>
-      <c r="P188" s="7"/>
+      <c r="P188" s="11"/>
     </row>
     <row r="189" spans="13:16">
-      <c r="M189" s="8">
+      <c r="M189" s="7">
         <v>186</v>
       </c>
-      <c r="N189" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O189" s="8">
+      <c r="N189" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O189" s="7">
         <v>5678</v>
       </c>
-      <c r="P189" s="7"/>
+      <c r="P189" s="11"/>
     </row>
     <row r="190" spans="13:16">
-      <c r="M190" s="8">
+      <c r="M190" s="7">
         <v>187</v>
       </c>
-      <c r="N190" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O190" s="8">
+      <c r="N190" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O190" s="7">
         <v>5684</v>
       </c>
-      <c r="P190" s="7"/>
+      <c r="P190" s="11"/>
     </row>
     <row r="191" spans="13:16">
-      <c r="M191" s="8">
+      <c r="M191" s="7">
         <v>188</v>
       </c>
-      <c r="N191" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O191" s="8">
+      <c r="N191" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O191" s="7">
         <v>5987</v>
       </c>
-      <c r="P191" s="7"/>
+      <c r="P191" s="11"/>
     </row>
     <row r="192" spans="13:16">
-      <c r="M192" s="8">
+      <c r="M192" s="7">
         <v>189</v>
       </c>
-      <c r="N192" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O192" s="8">
+      <c r="N192" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O192" s="7">
         <v>6026</v>
       </c>
-      <c r="P192" s="7"/>
+      <c r="P192" s="11"/>
     </row>
     <row r="193" spans="13:16">
-      <c r="M193" s="8">
+      <c r="M193" s="7">
         <v>190</v>
       </c>
-      <c r="N193" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O193" s="8">
+      <c r="N193" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O193" s="7">
         <v>6109</v>
       </c>
-      <c r="P193" s="7"/>
+      <c r="P193" s="11"/>
     </row>
     <row r="194" spans="13:16">
-      <c r="M194" s="8">
+      <c r="M194" s="7">
         <v>191</v>
       </c>
-      <c r="N194" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O194" s="8">
+      <c r="N194" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O194" s="7">
         <v>6959</v>
       </c>
-      <c r="P194" s="7"/>
+      <c r="P194" s="11"/>
     </row>
     <row r="195" spans="13:16">
-      <c r="M195" s="8">
+      <c r="M195" s="7">
         <v>192</v>
       </c>
-      <c r="N195" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O195" s="8">
+      <c r="N195" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O195" s="7">
         <v>7465</v>
       </c>
-      <c r="P195" s="7"/>
+      <c r="P195" s="11"/>
     </row>
     <row r="196" spans="13:16">
-      <c r="M196" s="8">
+      <c r="M196" s="7">
         <v>193</v>
       </c>
-      <c r="N196" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O196" s="8">
+      <c r="N196" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O196" s="7">
         <v>7701</v>
       </c>
-      <c r="P196" s="7"/>
+      <c r="P196" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF25E27-75C5-40D3-A1AB-6D97CCBDC441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737CEEC-1BD2-47A4-A49B-4B6A37254E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10695" yWindow="1020" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13935" yWindow="1845" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="237">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -771,6 +771,10 @@
   </si>
   <si>
     <t>9/4.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/5.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1005,6 +1009,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -1344,31 +1348,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="30" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="R2" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1473,7 +1477,7 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1520,7 +1524,7 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1533,7 +1537,7 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="13"/>
       <c r="I6" s="11">
         <v>10951</v>
       </c>
@@ -1565,7 +1569,7 @@
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -1612,7 +1616,7 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -1659,7 +1663,7 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4">
         <v>6</v>
       </c>
@@ -1706,7 +1710,7 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4">
         <v>7</v>
       </c>
@@ -1753,7 +1757,7 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4">
         <v>8</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4">
         <v>9</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4">
         <v>11</v>
       </c>
@@ -1939,7 +1943,7 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4">
         <v>12</v>
       </c>
@@ -1986,7 +1990,7 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4">
         <v>13</v>
       </c>
@@ -2033,7 +2037,7 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4">
         <v>14</v>
       </c>
@@ -2055,7 +2059,7 @@
       <c r="J17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="13"/>
       <c r="M17" s="7">
         <v>14</v>
       </c>
@@ -2078,7 +2082,7 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4">
         <v>15</v>
       </c>
@@ -2100,7 +2104,7 @@
       <c r="J18" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="13"/>
       <c r="M18" s="7">
         <v>15</v>
       </c>
@@ -2123,7 +2127,7 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4">
         <v>16</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="J19" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="13"/>
       <c r="M19" s="7">
         <v>16</v>
       </c>
@@ -2168,7 +2172,7 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="4">
         <v>17</v>
       </c>
@@ -2190,7 +2194,7 @@
       <c r="J20" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="13"/>
       <c r="M20" s="7">
         <v>17</v>
       </c>
@@ -2213,7 +2217,7 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="4">
         <v>18</v>
       </c>
@@ -2235,7 +2239,7 @@
       <c r="J21" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="13"/>
       <c r="M21" s="7">
         <v>18</v>
       </c>
@@ -2258,7 +2262,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="4">
         <v>19</v>
       </c>
@@ -2280,7 +2284,7 @@
       <c r="J22" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="13"/>
       <c r="M22" s="7">
         <v>19</v>
       </c>
@@ -2303,7 +2307,7 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="4">
         <v>20</v>
       </c>
@@ -2325,7 +2329,7 @@
       <c r="J23" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="13"/>
       <c r="M23" s="7">
         <v>20</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="4">
         <v>21</v>
       </c>
@@ -2370,7 +2374,7 @@
       <c r="J24" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="13"/>
       <c r="M24" s="7">
         <v>21</v>
       </c>
@@ -2383,7 +2387,7 @@
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="4">
         <v>22</v>
       </c>
@@ -2405,7 +2409,7 @@
       <c r="J25" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="13"/>
       <c r="M25" s="7">
         <v>22</v>
       </c>
@@ -2430,7 +2434,7 @@
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="4">
         <v>23</v>
       </c>
@@ -2452,7 +2456,7 @@
       <c r="J26" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="13"/>
       <c r="M26" s="7">
         <v>23</v>
       </c>
@@ -2475,7 +2479,7 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="4">
         <v>24</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="13"/>
       <c r="M27" s="7">
         <v>24</v>
       </c>
@@ -2511,7 +2515,7 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4">
         <v>25</v>
       </c>
@@ -2524,7 +2528,7 @@
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="13"/>
       <c r="M28" s="7">
         <v>25</v>
       </c>
@@ -2547,7 +2551,7 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4">
         <v>26</v>
       </c>
@@ -2585,7 +2589,7 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2">
@@ -2600,7 +2604,9 @@
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="M30" s="7">
         <v>27</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2">
         <v>28</v>
       </c>
@@ -2659,7 +2665,7 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2">
         <v>29</v>
       </c>
@@ -2695,7 +2701,7 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" spans="2:21">
-      <c r="B33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2">
         <v>30</v>
       </c>
@@ -2731,7 +2737,7 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" spans="2:21">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2">
@@ -2769,7 +2775,7 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="B35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="2">
         <v>32</v>
       </c>
@@ -2805,7 +2811,7 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2">
         <v>33</v>
       </c>
@@ -2841,7 +2847,7 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2">
         <v>34</v>
       </c>
@@ -2877,7 +2883,7 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2">
         <v>35</v>
       </c>
@@ -2913,7 +2919,7 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="4">
         <v>36</v>
       </c>
@@ -2949,7 +2955,7 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" spans="2:21">
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="4">
         <v>37</v>
       </c>
@@ -2985,7 +2991,7 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" spans="2:21">
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="4">
         <v>38</v>
       </c>
@@ -3021,7 +3027,7 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" spans="2:21">
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="4">
         <v>39</v>
       </c>
@@ -3057,7 +3063,7 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" spans="2:21">
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="4">
         <v>40</v>
       </c>
@@ -3093,7 +3099,7 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="4">
         <v>41</v>
       </c>
@@ -3129,7 +3135,7 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" spans="2:21">
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="4">
         <v>42</v>
       </c>
@@ -3165,7 +3171,7 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" spans="2:21">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="2">
@@ -3203,7 +3209,7 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" spans="2:21">
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2">
         <v>44</v>
       </c>
@@ -3239,7 +3245,7 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" spans="2:21">
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2">
         <v>45</v>
       </c>
@@ -3275,7 +3281,7 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" spans="2:21">
-      <c r="B49" s="17"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2">
         <v>46</v>
       </c>
@@ -3311,7 +3317,7 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" spans="2:21">
-      <c r="B50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2">
         <v>47</v>
       </c>
@@ -3347,7 +3353,7 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" spans="2:21">
-      <c r="B51" s="17"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="4">
         <v>48</v>
       </c>
@@ -3383,7 +3389,7 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" spans="2:21">
-      <c r="B52" s="17"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="4">
         <v>49</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="P52" s="11"/>
     </row>
     <row r="53" spans="2:21">
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="4">
         <v>50</v>
       </c>
@@ -3435,7 +3441,7 @@
       <c r="P53" s="11"/>
     </row>
     <row r="54" spans="2:21">
-      <c r="B54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="4">
         <v>51</v>
       </c>
@@ -3461,7 +3467,7 @@
       <c r="P54" s="11"/>
     </row>
     <row r="55" spans="2:21">
-      <c r="B55" s="17"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="4">
         <v>52</v>
       </c>
@@ -3490,7 +3496,7 @@
       </c>
     </row>
     <row r="56" spans="2:21">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="2">
@@ -3524,7 +3530,7 @@
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="B57" s="17"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2">
         <v>54</v>
       </c>
@@ -3553,7 +3559,7 @@
       </c>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2">
         <v>55</v>
       </c>
@@ -3582,7 +3588,7 @@
       </c>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="4">
         <v>56</v>
       </c>
@@ -3611,7 +3617,7 @@
       </c>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="4">
         <v>57</v>
       </c>
@@ -3640,7 +3646,7 @@
       </c>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="4">
         <v>58</v>
       </c>
@@ -3672,7 +3678,7 @@
       </c>
     </row>
     <row r="62" spans="2:21">
-      <c r="B62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="4">
         <v>59</v>
       </c>
@@ -3701,7 +3707,7 @@
       </c>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="17"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="4">
         <v>60</v>
       </c>
@@ -3730,7 +3736,7 @@
       </c>
     </row>
     <row r="64" spans="2:21">
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="2">
@@ -3758,7 +3764,7 @@
       <c r="P64" s="11"/>
     </row>
     <row r="65" spans="2:16">
-      <c r="B65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2">
         <v>62</v>
       </c>
@@ -3784,7 +3790,7 @@
       <c r="P65" s="11"/>
     </row>
     <row r="66" spans="2:16">
-      <c r="B66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="2">
         <v>63</v>
       </c>
@@ -3810,7 +3816,7 @@
       <c r="P66" s="11"/>
     </row>
     <row r="67" spans="2:16">
-      <c r="B67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2">
         <v>64</v>
       </c>
@@ -3836,7 +3842,7 @@
       <c r="P67" s="11"/>
     </row>
     <row r="68" spans="2:16">
-      <c r="B68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="2">
         <v>65</v>
       </c>
@@ -3862,7 +3868,7 @@
       <c r="P68" s="11"/>
     </row>
     <row r="69" spans="2:16">
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4">
         <v>66</v>
       </c>
@@ -3888,7 +3894,7 @@
       <c r="P69" s="11"/>
     </row>
     <row r="70" spans="2:16">
-      <c r="B70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="4">
         <v>67</v>
       </c>
@@ -3914,7 +3920,7 @@
       <c r="P70" s="11"/>
     </row>
     <row r="71" spans="2:16">
-      <c r="B71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="4">
         <v>68</v>
       </c>
@@ -3940,7 +3946,7 @@
       <c r="P71" s="11"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="2">
@@ -3968,7 +3974,7 @@
       <c r="P72" s="11"/>
     </row>
     <row r="73" spans="2:16">
-      <c r="B73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2">
         <v>70</v>
       </c>
@@ -3994,7 +4000,7 @@
       <c r="P73" s="11"/>
     </row>
     <row r="74" spans="2:16">
-      <c r="B74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2">
         <v>71</v>
       </c>
@@ -4020,7 +4026,7 @@
       <c r="P74" s="11"/>
     </row>
     <row r="75" spans="2:16">
-      <c r="B75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2">
         <v>72</v>
       </c>
@@ -4046,7 +4052,7 @@
       <c r="P75" s="11"/>
     </row>
     <row r="76" spans="2:16">
-      <c r="B76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4">
         <v>73</v>
       </c>
@@ -4072,7 +4078,7 @@
       <c r="P76" s="11"/>
     </row>
     <row r="77" spans="2:16">
-      <c r="B77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4">
         <v>74</v>
       </c>
@@ -4098,7 +4104,7 @@
       <c r="P77" s="11"/>
     </row>
     <row r="78" spans="2:16">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="2">
@@ -4126,7 +4132,7 @@
       <c r="P78" s="11"/>
     </row>
     <row r="79" spans="2:16">
-      <c r="B79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="2">
         <v>76</v>
       </c>
@@ -4152,7 +4158,7 @@
       <c r="P79" s="11"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="2">
         <v>77</v>
       </c>
@@ -4178,7 +4184,7 @@
       <c r="P80" s="11"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2">
         <v>78</v>
       </c>
@@ -4204,7 +4210,7 @@
       <c r="P81" s="11"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="4">
         <v>79</v>
       </c>
@@ -4230,7 +4236,7 @@
       <c r="P82" s="11"/>
     </row>
     <row r="83" spans="2:16">
-      <c r="B83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="4">
         <v>80</v>
       </c>
@@ -4256,7 +4262,7 @@
       <c r="P83" s="11"/>
     </row>
     <row r="84" spans="2:16">
-      <c r="B84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="4">
         <v>81</v>
       </c>
@@ -4282,7 +4288,7 @@
       <c r="P84" s="11"/>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="17"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="4">
         <v>82</v>
       </c>
@@ -4308,7 +4314,7 @@
       <c r="P85" s="11"/>
     </row>
     <row r="86" spans="2:16">
-      <c r="B86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="4">
         <v>83</v>
       </c>
@@ -4334,7 +4340,7 @@
       <c r="P86" s="11"/>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="4">
         <v>84</v>
       </c>
@@ -4360,7 +4366,7 @@
       <c r="P87" s="11"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4">
@@ -4388,7 +4394,7 @@
       <c r="P88" s="11"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="17"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="4">
         <v>86</v>
       </c>
@@ -4414,7 +4420,7 @@
       <c r="P89" s="11"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="4">
         <v>87</v>
       </c>
@@ -4440,7 +4446,7 @@
       <c r="P90" s="11"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="4">
         <v>88</v>
       </c>
@@ -4466,7 +4472,7 @@
       <c r="P91" s="11"/>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="4">
         <v>89</v>
       </c>
@@ -4492,7 +4498,7 @@
       <c r="P92" s="11"/>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="2">
         <v>90</v>
       </c>
@@ -4518,7 +4524,7 @@
       <c r="P93" s="11"/>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="2">
         <v>91</v>
       </c>
@@ -4544,7 +4550,7 @@
       <c r="P94" s="11"/>
     </row>
     <row r="95" spans="2:16">
-      <c r="B95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="2">
         <v>92</v>
       </c>
@@ -4570,7 +4576,7 @@
       <c r="P95" s="11"/>
     </row>
     <row r="96" spans="2:16">
-      <c r="B96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="2">
         <v>93</v>
       </c>
@@ -4596,7 +4602,7 @@
       <c r="P96" s="11"/>
     </row>
     <row r="97" spans="2:16">
-      <c r="B97" s="17"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="2">
         <v>94</v>
       </c>
@@ -4622,7 +4628,7 @@
       <c r="P97" s="11"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="2">
         <v>95</v>
       </c>
@@ -4648,7 +4654,7 @@
       <c r="P98" s="11"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C99" s="4">
@@ -4676,7 +4682,7 @@
       <c r="P99" s="11"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="4">
         <v>97</v>
       </c>
@@ -4702,7 +4708,7 @@
       <c r="P100" s="11"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="4">
         <v>98</v>
       </c>
@@ -4728,7 +4734,7 @@
       <c r="P101" s="11"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="4">
         <v>99</v>
       </c>
@@ -4754,7 +4760,7 @@
       <c r="P102" s="11"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="4">
         <v>100</v>
       </c>
@@ -4780,7 +4786,7 @@
       <c r="P103" s="11"/>
     </row>
     <row r="104" spans="2:16">
-      <c r="B104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="2">
         <v>101</v>
       </c>
@@ -4806,7 +4812,7 @@
       <c r="P104" s="11"/>
     </row>
     <row r="105" spans="2:16">
-      <c r="B105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2">
         <v>102</v>
       </c>
@@ -4832,7 +4838,7 @@
       <c r="P105" s="11"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="2">
         <v>103</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="P106" s="11"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="2">
         <v>104</v>
       </c>
@@ -4884,7 +4890,7 @@
       <c r="P107" s="11"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C108" s="4">
@@ -4912,7 +4918,7 @@
       <c r="P108" s="11"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="4">
         <v>106</v>
       </c>
@@ -4938,7 +4944,7 @@
       <c r="P109" s="11"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="4">
         <v>107</v>
       </c>
@@ -4964,7 +4970,7 @@
       <c r="P110" s="11"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="4">
         <v>108</v>
       </c>
@@ -4990,7 +4996,7 @@
       <c r="P111" s="11"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="4">
         <v>109</v>
       </c>
@@ -5016,7 +5022,7 @@
       <c r="P112" s="11"/>
     </row>
     <row r="113" spans="2:16">
-      <c r="B113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="2">
         <v>110</v>
       </c>
@@ -5042,7 +5048,7 @@
       <c r="P113" s="11"/>
     </row>
     <row r="114" spans="2:16">
-      <c r="B114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="2">
         <v>111</v>
       </c>
@@ -5068,7 +5074,7 @@
       <c r="P114" s="11"/>
     </row>
     <row r="115" spans="2:16">
-      <c r="B115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2">
         <v>112</v>
       </c>
@@ -5094,7 +5100,7 @@
       <c r="P115" s="11"/>
     </row>
     <row r="116" spans="2:16">
-      <c r="B116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="2">
         <v>113</v>
       </c>
@@ -5120,7 +5126,7 @@
       <c r="P116" s="11"/>
     </row>
     <row r="117" spans="2:16">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="18" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="4">
@@ -5148,7 +5154,7 @@
       <c r="P117" s="11"/>
     </row>
     <row r="118" spans="2:16">
-      <c r="B118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="4">
         <v>115</v>
       </c>
@@ -5174,7 +5180,7 @@
       <c r="P118" s="11"/>
     </row>
     <row r="119" spans="2:16">
-      <c r="B119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="4">
         <v>116</v>
       </c>
@@ -5200,7 +5206,7 @@
       <c r="P119" s="11"/>
     </row>
     <row r="120" spans="2:16">
-      <c r="B120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="4">
         <v>117</v>
       </c>
@@ -5226,7 +5232,7 @@
       <c r="P120" s="11"/>
     </row>
     <row r="121" spans="2:16">
-      <c r="B121" s="17"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="4">
         <v>118</v>
       </c>
@@ -5252,7 +5258,7 @@
       <c r="P121" s="11"/>
     </row>
     <row r="122" spans="2:16">
-      <c r="B122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="4">
         <v>119</v>
       </c>
@@ -5278,7 +5284,7 @@
       <c r="P122" s="11"/>
     </row>
     <row r="123" spans="2:16">
-      <c r="B123" s="17"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="2">
         <v>120</v>
       </c>
@@ -5304,7 +5310,7 @@
       <c r="P123" s="11"/>
     </row>
     <row r="124" spans="2:16">
-      <c r="B124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="2">
         <v>121</v>
       </c>
@@ -5330,7 +5336,7 @@
       <c r="P124" s="11"/>
     </row>
     <row r="125" spans="2:16">
-      <c r="B125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="2">
         <v>122</v>
       </c>
@@ -5356,7 +5362,7 @@
       <c r="P125" s="11"/>
     </row>
     <row r="126" spans="2:16">
-      <c r="B126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="2">
         <v>123</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737CEEC-1BD2-47A4-A49B-4B6A37254E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C56C4-65FA-44F3-B59C-C73E1F678AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13935" yWindow="1845" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="238">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -775,6 +775,10 @@
   </si>
   <si>
     <t>9/5.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1318,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -2642,7 +2646,7 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="13"/>
       <c r="M31" s="7">
         <v>28</v>
       </c>
@@ -2678,7 +2682,7 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="13"/>
       <c r="M32" s="7">
         <v>29</v>
       </c>
@@ -2714,7 +2718,9 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="M33" s="7">
         <v>30</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C56C4-65FA-44F3-B59C-C73E1F678AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128CF7F2-42AB-4FE0-A99F-8CAD6F1FC15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13935" yWindow="1845" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14955" yWindow="885" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -2758,7 +2758,7 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="13"/>
       <c r="M34" s="7">
         <v>31</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="13"/>
       <c r="M35" s="7">
         <v>32</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="13"/>
       <c r="M36" s="7">
         <v>33</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="13"/>
       <c r="M37" s="7">
         <v>34</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="13"/>
       <c r="M38" s="7">
         <v>35</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="13"/>
       <c r="M39" s="7">
         <v>36</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="13"/>
       <c r="M40" s="7">
         <v>37</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="F41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="13"/>
       <c r="M41" s="7">
         <v>38</v>
       </c>

--- a/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
+++ b/기타_알고리즘1일1문제/알고리즘문제리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\기타_알고리즘1일1문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128CF7F2-42AB-4FE0-A99F-8CAD6F1FC15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20029FDA-0C34-41D0-94CA-89A7951A97A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14955" yWindow="885" windowWidth="11745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14685" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제리스트" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="240">
   <si>
     <t>BOJ &amp; PR</t>
   </si>
@@ -779,6 +779,14 @@
   </si>
   <si>
     <t>9/6.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/9.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간초과;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1322,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="16.5"/>
@@ -3046,7 +3054,7 @@
       <c r="F42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="13"/>
       <c r="M42" s="7">
         <v>39</v>
       </c>
@@ -3082,7 +3090,7 @@
       <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="13"/>
       <c r="M43" s="7">
         <v>40</v>
       </c>
@@ -3118,7 +3126,9 @@
       <c r="F44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="M44" s="7">
         <v>41</v>
       </c>
@@ -3154,7 +3164,7 @@
       <c r="F45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="13"/>
       <c r="M45" s="7">
         <v>42</v>
       </c>
@@ -3372,7 +3382,9 @@
       <c r="F51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="M51" s="7">
         <v>48</v>
       </c>
@@ -3408,7 +3420,7 @@
       <c r="F52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="11"/>
+      <c r="G52" s="13"/>
       <c r="M52" s="7">
         <v>49</v>
       </c>
@@ -3434,7 +3446,7 @@
       <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="13"/>
       <c r="M53" s="7">
         <v>50</v>
       </c>
@@ -3460,7 +3472,7 @@
       <c r="F54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="13"/>
       <c r="M54" s="7">
         <v>51</v>
       </c>
@@ -3486,7 +3498,7 @@
       <c r="F55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="13"/>
       <c r="M55" s="7">
         <v>52</v>
       </c>
@@ -3517,7 +3529,7 @@
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="11"/>
+      <c r="G56" s="13"/>
       <c r="M56" s="7">
         <v>53</v>
       </c>
